--- a/data/clean/Delphi2_text.xlsx
+++ b/data/clean/Delphi2_text.xlsx
@@ -974,93 +974,105 @@
     <t>316</t>
   </si>
   <si>
+    <t>R_8rpHfdI6SxbHDLL</t>
+  </si>
+  <si>
+    <t>R_5gqI45metw8iz7j</t>
+  </si>
+  <si>
+    <t>R_1oBG6bwc7SrHDhl</t>
+  </si>
+  <si>
+    <t>R_3qwe1AAvlQhatgJ</t>
+  </si>
+  <si>
+    <t>R_1a9867ZRmX34U2a</t>
+  </si>
+  <si>
+    <t>R_5YR1eyRyCtS5oLr</t>
+  </si>
+  <si>
     <t>R_32yvJOIN0xbDhGW</t>
   </si>
   <si>
     <t>R_4FxUYwVDuizy9ix</t>
   </si>
   <si>
+    <t>R_4uTZQqr7DHxeDYf</t>
+  </si>
+  <si>
+    <t>R_7J1MWacJD60oVfX</t>
+  </si>
+  <si>
+    <t>R_6fdYb6Jd6O8EbZI</t>
+  </si>
+  <si>
+    <t>R_5fGgBm2z1Py8jwR</t>
+  </si>
+  <si>
+    <t>R_1U1AAr85dVsju5b</t>
+  </si>
+  <si>
     <t>R_4q2hp8YGxJXUEIl</t>
   </si>
   <si>
-    <t>R_8rpHfdI6SxbHDLL</t>
-  </si>
-  <si>
-    <t>R_4uTZQqr7DHxeDYf</t>
-  </si>
-  <si>
-    <t>R_1a9867ZRmX34U2a</t>
-  </si>
-  <si>
-    <t>R_5YR1eyRyCtS5oLr</t>
-  </si>
-  <si>
-    <t>R_1U1AAr85dVsju5b</t>
-  </si>
-  <si>
-    <t>R_5gqI45metw8iz7j</t>
-  </si>
-  <si>
     <t>R_61n1XuRqiD60YPT</t>
   </si>
   <si>
+    <t>R_6az5LwYusR1f7Vr</t>
+  </si>
+  <si>
     <t>R_16ASw1yyQINyOxX</t>
   </si>
   <si>
+    <t>R_4w4dxww0pAYfwZj</t>
+  </si>
+  <si>
+    <t>R_4G2JFb8wKQSMlSV</t>
+  </si>
+  <si>
+    <t>R_2Hn2IdwBrIYeeWS</t>
+  </si>
+  <si>
+    <t>R_7RehK7EQlKQnkID</t>
+  </si>
+  <si>
     <t>R_5dvpRjbhtnAXpLg</t>
   </si>
   <si>
-    <t>R_6az5LwYusR1f7Vr</t>
-  </si>
-  <si>
-    <t>R_4G2JFb8wKQSMlSV</t>
-  </si>
-  <si>
-    <t>R_1oBG6bwc7SrHDhl</t>
-  </si>
-  <si>
-    <t>R_7J1MWacJD60oVfX</t>
-  </si>
-  <si>
-    <t>R_7RehK7EQlKQnkID</t>
-  </si>
-  <si>
-    <t>R_2Hn2IdwBrIYeeWS</t>
-  </si>
-  <si>
-    <t>R_6fdYb6Jd6O8EbZI</t>
-  </si>
-  <si>
-    <t>R_5fGgBm2z1Py8jwR</t>
-  </si>
-  <si>
     <t>R_3E6t998vgMW7fW7</t>
   </si>
   <si>
-    <t>R_3qwe1AAvlQhatgJ</t>
-  </si>
-  <si>
-    <t>R_4w4dxww0pAYfwZj</t>
-  </si>
-  <si>
     <t>R_2QnhDU1gTg4vwq0</t>
   </si>
   <si>
     <t>CLUSTER 1</t>
   </si>
   <si>
+    <t>CLUSTER 10</t>
+  </si>
+  <si>
+    <t>CLUSTER 11</t>
+  </si>
+  <si>
+    <t>CLUSTER 12</t>
+  </si>
+  <si>
+    <t>CLUSTER 2</t>
+  </si>
+  <si>
+    <t>CLUSTER 3</t>
+  </si>
+  <si>
+    <t>CLUSTER 4</t>
+  </si>
+  <si>
     <t>CLUSTER 5</t>
   </si>
   <si>
     <t>CLUSTER 6</t>
   </si>
   <si>
-    <t>CLUSTER 12</t>
-  </si>
-  <si>
-    <t>CLUSTER 2</t>
-  </si>
-  <si>
     <t>CLUSTER 7</t>
   </si>
   <si>
@@ -1070,745 +1082,998 @@
     <t>CLUSTER 9</t>
   </si>
   <si>
-    <t>CLUSTER 3</t>
-  </si>
-  <si>
-    <t>CLUSTER 4</t>
-  </si>
-  <si>
-    <t>CLUSTER 10</t>
-  </si>
-  <si>
-    <t>CLUSTER 11</t>
+    <t>Q2_10_4_TEXT</t>
+  </si>
+  <si>
+    <t>Q2_11_4_TEXT</t>
+  </si>
+  <si>
+    <t>Q2_12_4_TEXT</t>
+  </si>
+  <si>
+    <t>Q2_13_4_TEXT</t>
+  </si>
+  <si>
+    <t>Q2_14_4_TEXT</t>
+  </si>
+  <si>
+    <t>Q2_15_4_TEXT</t>
+  </si>
+  <si>
+    <t>Q2_16_4_TEXT</t>
+  </si>
+  <si>
+    <t>Q2_1_4_TEXT</t>
   </si>
   <si>
     <t>Q2_2_4_TEXT</t>
   </si>
   <si>
+    <t>Q2_3_4_TEXT</t>
+  </si>
+  <si>
     <t>Q2_4_4_TEXT</t>
   </si>
   <si>
+    <t>Q2_5_4_TEXT</t>
+  </si>
+  <si>
+    <t>Q2_6_4_TEXT</t>
+  </si>
+  <si>
+    <t>Q2_7_4_TEXT</t>
+  </si>
+  <si>
     <t>Q2_8_4_TEXT</t>
   </si>
   <si>
-    <t>Q2_14_4_TEXT</t>
-  </si>
-  <si>
-    <t>Q2_15_4_TEXT</t>
+    <t>Q2_9_4_TEXT</t>
+  </si>
+  <si>
+    <t>Q11_1_4_TEXT</t>
+  </si>
+  <si>
+    <t>Q11_2_4_TEXT</t>
+  </si>
+  <si>
+    <t>Q11_3_4_TEXT</t>
+  </si>
+  <si>
+    <t>Q11_4_4_TEXT</t>
+  </si>
+  <si>
+    <t>Q12_1_4_TEXT</t>
+  </si>
+  <si>
+    <t>Q12_2_4_TEXT</t>
+  </si>
+  <si>
+    <t>Q12_3_4_TEXT</t>
+  </si>
+  <si>
+    <t>Q12_4_4_TEXT</t>
+  </si>
+  <si>
+    <t>Q13_1_4_TEXT</t>
+  </si>
+  <si>
+    <t>Q13_2_4_TEXT</t>
+  </si>
+  <si>
+    <t>Q13_3_4_TEXT</t>
+  </si>
+  <si>
+    <t>Q3_10_4_TEXT</t>
+  </si>
+  <si>
+    <t>Q3_11_4_TEXT</t>
+  </si>
+  <si>
+    <t>Q3_12_4_TEXT</t>
+  </si>
+  <si>
+    <t>Q3_1_4_TEXT</t>
+  </si>
+  <si>
+    <t>Q3_2_4_TEXT</t>
+  </si>
+  <si>
+    <t>Q3_3_4_TEXT</t>
+  </si>
+  <si>
+    <t>Q3_5_4_TEXT</t>
+  </si>
+  <si>
+    <t>Q3_6_4_TEXT</t>
+  </si>
+  <si>
+    <t>Q3_7_4_TEXT</t>
+  </si>
+  <si>
+    <t>Q3_8_4_TEXT</t>
+  </si>
+  <si>
+    <t>Q3_9_4_TEXT</t>
+  </si>
+  <si>
+    <t>Q4_1_4_TEXT</t>
+  </si>
+  <si>
+    <t>Q4_2_4_TEXT</t>
+  </si>
+  <si>
+    <t>Q4_3_4_TEXT</t>
+  </si>
+  <si>
+    <t>Q4_4_4_TEXT</t>
+  </si>
+  <si>
+    <t>Q4_5_4_TEXT</t>
+  </si>
+  <si>
+    <t>Q4_6_4_TEXT</t>
+  </si>
+  <si>
+    <t>Q4_7_4_TEXT</t>
+  </si>
+  <si>
+    <t>Q5_1_4_TEXT</t>
+  </si>
+  <si>
+    <t>Q5_2_4_TEXT</t>
+  </si>
+  <si>
+    <t>Q5_3_4_TEXT</t>
+  </si>
+  <si>
+    <t>Q5_4_4_TEXT</t>
+  </si>
+  <si>
+    <t>Q5_5_4_TEXT</t>
+  </si>
+  <si>
+    <t>Q5_6_4_TEXT</t>
   </si>
   <si>
     <t>Q6_1_4_TEXT</t>
   </si>
   <si>
+    <t>Q6_2_4_TEXT</t>
+  </si>
+  <si>
+    <t>Q6_3_4_TEXT</t>
+  </si>
+  <si>
+    <t>Q6_4_4_TEXT</t>
+  </si>
+  <si>
+    <t>Q6_5_4_TEXT</t>
+  </si>
+  <si>
+    <t>Q6_6_4_TEXT</t>
+  </si>
+  <si>
+    <t>Q7_10_4_TEXT</t>
+  </si>
+  <si>
+    <t>Q7_11_4_TEXT</t>
+  </si>
+  <si>
+    <t>Q7_12_4_TEXT</t>
+  </si>
+  <si>
+    <t>Q7_13_4_TEXT</t>
+  </si>
+  <si>
+    <t>Q7_14_4_TEXT</t>
+  </si>
+  <si>
     <t>Q7_1_4_TEXT</t>
   </si>
   <si>
     <t>Q7_2_4_TEXT</t>
   </si>
   <si>
+    <t>Q7_3_4_TEXT</t>
+  </si>
+  <si>
+    <t>Q7_4_4_TEXT</t>
+  </si>
+  <si>
+    <t>Q7_5_4_TEXT</t>
+  </si>
+  <si>
     <t>Q7_6_4_TEXT</t>
   </si>
   <si>
+    <t>Q7_7_4_TEXT</t>
+  </si>
+  <si>
     <t>Q7_8_4_TEXT</t>
   </si>
   <si>
-    <t>Q7_13_4_TEXT</t>
-  </si>
-  <si>
-    <t>Q13_1_4_TEXT</t>
-  </si>
-  <si>
-    <t>Q2_7_4_TEXT</t>
-  </si>
-  <si>
-    <t>Q2_9_4_TEXT</t>
-  </si>
-  <si>
-    <t>Q3_9_4_TEXT</t>
-  </si>
-  <si>
-    <t>Q3_12_4_TEXT</t>
-  </si>
-  <si>
-    <t>Q6_3_4_TEXT</t>
+    <t>Q7_9_4_TEXT</t>
+  </si>
+  <si>
+    <t>Q8_1_4_TEXT</t>
+  </si>
+  <si>
+    <t>Q8_2_4_TEXT</t>
+  </si>
+  <si>
+    <t>Q8_3_4_TEXT</t>
+  </si>
+  <si>
+    <t>Q8_4_4_TEXT</t>
   </si>
   <si>
     <t>Q8_5_4_TEXT</t>
   </si>
   <si>
+    <t>Q8_6_4_TEXT</t>
+  </si>
+  <si>
+    <t>Q8_7_4_TEXT</t>
+  </si>
+  <si>
     <t>Q8_8_4_TEXT</t>
   </si>
   <si>
+    <t>Q9_1_4_TEXT</t>
+  </si>
+  <si>
+    <t>Q9_2_4_TEXT</t>
+  </si>
+  <si>
+    <t>Q9_4_4_TEXT</t>
+  </si>
+  <si>
     <t>Q9_5_4_TEXT</t>
   </si>
   <si>
+    <t>Q9_6_4_TEXT</t>
+  </si>
+  <si>
     <t>Q10_1_4_TEXT</t>
   </si>
   <si>
     <t>Q10_3_4_TEXT</t>
   </si>
   <si>
+    <t>Q10_4_4_TEXT</t>
+  </si>
+  <si>
+    <t>Q10_5_4_TEXT</t>
+  </si>
+  <si>
+    <t>Q10_6_4_TEXT</t>
+  </si>
+  <si>
     <t>Q10_7_4_TEXT</t>
   </si>
   <si>
-    <t>Q2_1_4_TEXT</t>
-  </si>
-  <si>
-    <t>Q3_11_4_TEXT</t>
-  </si>
-  <si>
-    <t>Q4_3_4_TEXT</t>
-  </si>
-  <si>
-    <t>Q5_4_4_TEXT</t>
-  </si>
-  <si>
-    <t>Q5_6_4_TEXT</t>
-  </si>
-  <si>
-    <t>Q7_4_4_TEXT</t>
-  </si>
-  <si>
-    <t>Q9_4_4_TEXT</t>
-  </si>
-  <si>
-    <t>Q2_10_4_TEXT</t>
-  </si>
-  <si>
-    <t>Q6_2_4_TEXT</t>
-  </si>
-  <si>
-    <t>Q9_6_4_TEXT</t>
-  </si>
-  <si>
-    <t>Q2_5_4_TEXT</t>
-  </si>
-  <si>
-    <t>Q2_6_4_TEXT</t>
-  </si>
-  <si>
-    <t>Q2_12_4_TEXT</t>
-  </si>
-  <si>
-    <t>Q3_5_4_TEXT</t>
-  </si>
-  <si>
-    <t>Q3_6_4_TEXT</t>
-  </si>
-  <si>
-    <t>Q3_7_4_TEXT</t>
-  </si>
-  <si>
-    <t>Q3_10_4_TEXT</t>
-  </si>
-  <si>
-    <t>Q4_1_4_TEXT</t>
-  </si>
-  <si>
-    <t>Q4_5_4_TEXT</t>
-  </si>
-  <si>
-    <t>Q6_4_4_TEXT</t>
-  </si>
-  <si>
-    <t>Q6_5_4_TEXT</t>
-  </si>
-  <si>
-    <t>Q6_6_4_TEXT</t>
-  </si>
-  <si>
-    <t>Q7_3_4_TEXT</t>
-  </si>
-  <si>
-    <t>Q7_9_4_TEXT</t>
-  </si>
-  <si>
-    <t>Q7_10_4_TEXT</t>
-  </si>
-  <si>
-    <t>Q7_12_4_TEXT</t>
-  </si>
-  <si>
-    <t>Q7_14_4_TEXT</t>
-  </si>
-  <si>
-    <t>Q8_1_4_TEXT</t>
-  </si>
-  <si>
-    <t>Q9_1_4_TEXT</t>
-  </si>
-  <si>
-    <t>Q11_1_4_TEXT</t>
-  </si>
-  <si>
-    <t>Q11_3_4_TEXT</t>
-  </si>
-  <si>
-    <t>Q11_4_4_TEXT</t>
-  </si>
-  <si>
-    <t>Q2_3_4_TEXT</t>
-  </si>
-  <si>
-    <t>Q4_2_4_TEXT</t>
-  </si>
-  <si>
-    <t>Q4_4_4_TEXT</t>
-  </si>
-  <si>
-    <t>Q4_7_4_TEXT</t>
-  </si>
-  <si>
-    <t>Q5_1_4_TEXT</t>
-  </si>
-  <si>
-    <t>Q5_3_4_TEXT</t>
-  </si>
-  <si>
-    <t>Q8_7_4_TEXT</t>
-  </si>
-  <si>
-    <t>Q10_6_4_TEXT</t>
-  </si>
-  <si>
-    <t>Q12_1_4_TEXT</t>
-  </si>
-  <si>
-    <t>Q2_16_4_TEXT</t>
-  </si>
-  <si>
-    <t>Q5_2_4_TEXT</t>
-  </si>
-  <si>
-    <t>Q8_4_4_TEXT</t>
-  </si>
-  <si>
-    <t>Q2_11_4_TEXT</t>
-  </si>
-  <si>
-    <t>Q2_13_4_TEXT</t>
-  </si>
-  <si>
-    <t>Q11_2_4_TEXT</t>
-  </si>
-  <si>
-    <t>Q5_5_4_TEXT</t>
-  </si>
-  <si>
-    <t>Q8_2_4_TEXT</t>
-  </si>
-  <si>
-    <t>Q7_11_4_TEXT</t>
-  </si>
-  <si>
-    <t>Q12_3_4_TEXT</t>
-  </si>
-  <si>
-    <t>Q8_6_4_TEXT</t>
-  </si>
-  <si>
-    <t>Q9_2_4_TEXT</t>
-  </si>
-  <si>
-    <t>Q10_4_4_TEXT</t>
-  </si>
-  <si>
-    <t>Q10_5_4_TEXT</t>
-  </si>
-  <si>
-    <t>Q12_2_4_TEXT</t>
-  </si>
-  <si>
-    <t>Q12_4_4_TEXT</t>
-  </si>
-  <si>
-    <t>Q7_5_4_TEXT</t>
-  </si>
-  <si>
-    <t>Q8_3_4_TEXT</t>
-  </si>
-  <si>
-    <t>Q13_2_4_TEXT</t>
-  </si>
-  <si>
-    <t>Q13_3_4_TEXT</t>
-  </si>
-  <si>
-    <t>Q3_1_4_TEXT</t>
-  </si>
-  <si>
-    <t>Q3_2_4_TEXT</t>
-  </si>
-  <si>
-    <t>Q3_3_4_TEXT</t>
-  </si>
-  <si>
-    <t>Q7_7_4_TEXT</t>
-  </si>
-  <si>
-    <t>Q3_8_4_TEXT</t>
-  </si>
-  <si>
-    <t>Q4_6_4_TEXT</t>
+    <t>Check the cultural appropriateness of mental health assessment tools and interpret results with caution prioritizing a participatory approach.</t>
+  </si>
+  <si>
+    <t>and practice cultural humility</t>
+  </si>
+  <si>
+    <t>be aware that within one culture multiple cultures exist</t>
+  </si>
+  <si>
+    <t>Cultural humility doesn’t mean anything</t>
+  </si>
+  <si>
+    <t>I would leave out the second half - if the 'category fallacy' is invoked it has to be explained. Invoking it adds little.</t>
+  </si>
+  <si>
+    <t>never use academic term like category fallacy without defining it clearly.</t>
+  </si>
+  <si>
+    <t>Not western but euro American</t>
+  </si>
+  <si>
+    <t>mental health care and psychosocial well-being</t>
+  </si>
+  <si>
+    <t>Views and understanding of their situation</t>
+  </si>
+  <si>
+    <t>could also be done formally</t>
+  </si>
+  <si>
+    <t>this is rather generic as it is posed. how one informally asses acculturation?</t>
+  </si>
+  <si>
+    <t>This may differ over areas, so perhaps restrict it to mental health</t>
+  </si>
+  <si>
+    <t>I think this needs unpacking/explaining</t>
+  </si>
+  <si>
+    <t>Why not do this formally?</t>
+  </si>
+  <si>
+    <t>I don't think this should be necessarily 'informally'. Some structured point of attention can direct this assessment.</t>
+  </si>
+  <si>
+    <t>It's not clear to me what "informally" means with regards to assessment. Some informal assessment I would agree with, others I would not.</t>
+  </si>
+  <si>
+    <t>You might need standards for this one.  For example, how would the frontline worker informally assess acculturation?</t>
+  </si>
+  <si>
+    <t>duplication</t>
+  </si>
+  <si>
+    <t>particularly important to unpack the unconscious biases</t>
+  </si>
+  <si>
+    <t>Maybe also important? Try to understand and recognise common mental health challenges following forced migration (by which I mean not culturally bound but migration related issues)</t>
+  </si>
+  <si>
+    <t>keep in mind this could be due to individual differences, not particularly linked to culture</t>
+  </si>
+  <si>
+    <t>Not clear what the intent is</t>
+  </si>
+  <si>
+    <t>societal positions is a somewhat advanced/technical term. Can you find something simpler or give an example?</t>
+  </si>
+  <si>
+    <t>experiences and outcomes</t>
+  </si>
+  <si>
+    <t>I do not like the word determining, suggest to use impact</t>
+  </si>
+  <si>
+    <t>Acknowledge that the intersection of cultural norms and values, life experiences, societal positions, and social categories (e.g., gender, sexual orientation) interact in determining mental health experiences.</t>
+  </si>
+  <si>
+    <t>Shape or make instead of determine</t>
   </si>
   <si>
     <t>simplify</t>
   </si>
   <si>
-    <t>duplicates previous?</t>
-  </si>
-  <si>
-    <t>duplication</t>
-  </si>
-  <si>
-    <t>could also be done formally</t>
-  </si>
-  <si>
-    <t>Not relevant in all cases</t>
-  </si>
-  <si>
-    <t>this will need explanation</t>
-  </si>
-  <si>
-    <t>where relevant</t>
-  </si>
-  <si>
-    <t>if relevant (immediate responses)</t>
-  </si>
-  <si>
-    <t>under some conditions (with training and supervision) this may be helpful</t>
-  </si>
-  <si>
     <t>while culturalization is important, one should never assume the adherence of a specific individual to their mainstream culture, and migration change cultural influences</t>
   </si>
   <si>
-    <t>i would explicitly refer to the terms and labels we refer to here.</t>
-  </si>
-  <si>
-    <t>who?</t>
-  </si>
-  <si>
-    <t>this is rather generic as it is posed. how one informally asses acculturation?</t>
-  </si>
-  <si>
-    <t>not sure i get this, or better, i get it but i think it is ambiguous</t>
-  </si>
-  <si>
-    <t>why only needs and not also resources and strenghts?</t>
-  </si>
-  <si>
-    <t>why only to adress feelings of powerlessness and helplessness?</t>
-  </si>
-  <si>
-    <t>if they are positive to them. you do not want a battered wife to sustain their relation with the husband, necessarily.</t>
-  </si>
-  <si>
-    <t>i would call it, more largely a psychosocially informed approach, that includes a trauma focussed one but it is not limited to it</t>
-  </si>
-  <si>
-    <t>not before but at the same time, i am against the kind of chronology suggested by the proposition. what about asylum seekers with severe mental disorders?</t>
-  </si>
-  <si>
-    <t>can evoke</t>
-  </si>
-  <si>
-    <t>can the person resist without loosing their job?</t>
-  </si>
-  <si>
-    <t>it is well formulated but maybe not that important in the context</t>
-  </si>
-  <si>
-    <t>one own or from the assited people? ambigouos</t>
-  </si>
-  <si>
-    <t>i have a problem with the versb tolerate in this context</t>
-  </si>
-  <si>
-    <t>Not clear what the intent is</t>
-  </si>
-  <si>
-    <t>Would be dependent on situation</t>
-  </si>
-  <si>
-    <t>Only if you understand the language</t>
-  </si>
-  <si>
-    <t>Not clear</t>
-  </si>
-  <si>
-    <t>Only when it is appropriate</t>
-  </si>
-  <si>
-    <t>May not be possible and will lead to feelings of hopelessness</t>
-  </si>
-  <si>
-    <t>Person centred is better than survivor- what if loved ones haven’t survived- what does that mean to those who have - can increase feelings of survivor guilt</t>
-  </si>
-  <si>
-    <t>To an extent</t>
-  </si>
-  <si>
-    <t>May be difficult to do in practice</t>
-  </si>
-  <si>
-    <t>But it may be necessary if doing trauma based exposure therapy</t>
-  </si>
-  <si>
-    <t>Be aware of the unique characteristics of the resident (e.g. ethnic, cultural, spiritual, social, educational, linguistics, gender identity and expression, sexual orientation) and how these may influence mental health conversations, facilitated in an inclusive manner.</t>
-  </si>
-  <si>
-    <t>Check the cultural appropriateness of mental health assessment tools and interpret results with caution prioritizing a participatory approach.</t>
-  </si>
-  <si>
-    <t>Take the lead from asylum seekers and actively engage their respective communities in decision-making processes.</t>
-  </si>
-  <si>
-    <t>Build a bridge between the asylum seeker's perspective and experiences and the resources and services available working involving people with refugee experiences in the process as peer workers.</t>
-  </si>
-  <si>
-    <t>Encourage and enable asylum seekers to sustain existing relationships that align with their values and they perceive as supportive themselves.</t>
-  </si>
-  <si>
-    <t>Initiate scalable psychological interventions integrating them in existing systems and practices.</t>
-  </si>
-  <si>
-    <t>Recognise and resist oppressive government policies and measures through advocacy engaging aslym seekers' communities and other stakeholders.</t>
-  </si>
-  <si>
-    <t>Be prepared to cope with strong emotions seeking supervision when necessary or other mental health support via the organization.</t>
-  </si>
-  <si>
-    <t>Address your own feelings of powerlessness and helplessness due to lack of immediate solutions through engaging the organization and seeking appropriate support in the form of supervision or additional training.</t>
-  </si>
-  <si>
-    <t>This may differ over areas, so perhaps restrict it to mental health</t>
-  </si>
-  <si>
-    <t>it is too general, previous quotes were better</t>
-  </si>
-  <si>
-    <t>not just the political debate, but the way you perceive the world, relationships and yourself</t>
-  </si>
-  <si>
-    <t>The comma is redundant. So is the word 'about'</t>
-  </si>
-  <si>
-    <t>I would say 'significant' rather than 'strong'</t>
-  </si>
-  <si>
-    <t>I'd saw 'be aware of' rather than 'be knowledgeable about'</t>
-  </si>
-  <si>
-    <t>I would leave out the second half - if the 'category fallacy' is invoked it has to be explained. Invoking it adds little.</t>
-  </si>
-  <si>
-    <t>I think this needs unpacking/explaining</t>
-  </si>
-  <si>
-    <t>I think there are two components here which need to be separated</t>
-  </si>
-  <si>
-    <t>I think this should be 'try to establish...'</t>
-  </si>
-  <si>
-    <t>Try to or strive to</t>
-  </si>
-  <si>
-    <t>I'd omit 'similar to your own' or replace with 'which are as important/valid as your own'</t>
-  </si>
-  <si>
-    <t>Meaningless without clarifying what 'interacting' means</t>
-  </si>
-  <si>
-    <t>Not sure about multilingual colleagues. Might also be worth invoking 'cultural mediators'</t>
-  </si>
-  <si>
-    <t>Maybe 'where possible, ask ....</t>
-  </si>
-  <si>
-    <t>Add 'or avoid rapid deterioration'</t>
-  </si>
-  <si>
-    <t>This needs expanding</t>
-  </si>
-  <si>
-    <t>maybe add 'and build and sustain new ones'</t>
-  </si>
-  <si>
-    <t>'to facilitate' is clearer than 'aiding in'</t>
-  </si>
-  <si>
-    <t>'Be familiar with' rather than 'know'</t>
-  </si>
-  <si>
-    <t>I'm not sure this is necessary. There are many evidence based approaches - why single out mindfulness?</t>
-  </si>
-  <si>
-    <t>Employ de-escalation techniques AS NECESSARY....</t>
-  </si>
-  <si>
-    <t>I suggest 'be familiar with evidence-based approaches that help....</t>
-  </si>
-  <si>
-    <t>'Be aware' rather than 'know'</t>
-  </si>
-  <si>
-    <t>'accompany asylum seekers WHERE THIS IS FEASIBLE AND NECESSARY'. This might need a bit more explanation...</t>
-  </si>
-  <si>
-    <t>add 'where appropriate'.</t>
-  </si>
-  <si>
-    <t>'to help seeking AND THE PROVISION OF SUCH HELP'</t>
-  </si>
-  <si>
-    <t>need to specify 'local/regional/national' asylum policy...</t>
-  </si>
-  <si>
-    <t>I would replace 'typically' with 'often'</t>
-  </si>
-  <si>
-    <t>I think this should have a caveat such as 'where possible' or 'where appropriate'</t>
-  </si>
-  <si>
-    <t>maybe add 'in yourself and in others'</t>
-  </si>
-  <si>
-    <t>Recognise that it may be necessary to tolerate feelings....</t>
-  </si>
-  <si>
-    <t>I don't think 'residents' is the right word - maybe 'clients' or 'sanctuary seekers'</t>
-  </si>
-  <si>
-    <t>'Signpost' is clearer than 'orientate'</t>
-  </si>
-  <si>
-    <t>Maybe ''Try to work in....'</t>
-  </si>
-  <si>
-    <t>I think the point is not to elicit MORE DETAILED ACCOUNTS THAN NECESSARY FOR THE PURPOSE(S) IN HAND</t>
-  </si>
-  <si>
-    <t>societal positions is a somewhat advanced/technical term. Can you find something simpler or give an example?</t>
-  </si>
-  <si>
     <t>same as last comment. "culturalisation" is a pretty high level term.</t>
   </si>
   <si>
+    <t>Bring into account cultural aspects. Not avoiding them or over emphasizing... Check with your client to see where you are regarding this balance</t>
+  </si>
+  <si>
+    <t>make the statement a bit easier to understand</t>
+  </si>
+  <si>
+    <t>Avoid excessive culturalisation and a disproportionate emphasis on cultural influences and stereotypes, when it is detrimental to other important considerations during the conversation.</t>
+  </si>
+  <si>
+    <t>this sentence is not very clear. What do you want people to do?</t>
+  </si>
+  <si>
+    <t>I read some conflict in this statement. I think several important considerations should exist in parallel, not competing.</t>
+  </si>
+  <si>
     <t>define the term</t>
-  </si>
-  <si>
-    <t>never use academic term like category fallacy without defining it clearly.</t>
-  </si>
-  <si>
-    <t>This again uses jargon. good to explain what this means.</t>
-  </si>
-  <si>
-    <t>give example</t>
-  </si>
-  <si>
-    <t>such as...</t>
-  </si>
-  <si>
-    <t>give example or define</t>
-  </si>
-  <si>
-    <t>for example...</t>
-  </si>
-  <si>
-    <t>what does approaches mean here?</t>
-  </si>
-  <si>
-    <t>explain the verb "centre"</t>
-  </si>
-  <si>
-    <t>meaning what?</t>
-  </si>
-  <si>
-    <t>good but kind of vague and abstract</t>
-  </si>
-  <si>
-    <t>feels vague to me.</t>
-  </si>
-  <si>
-    <t>complicated. in general yes, but hard to do so if you really feel there is no basis for the claim.</t>
-  </si>
-  <si>
-    <t>explain how to do this mitigation, eg, give an example</t>
-  </si>
-  <si>
-    <t>feels pretty vague and big...too inclusive...are all govt measures and policies bad?</t>
-  </si>
-  <si>
-    <t>too vague and broad</t>
-  </si>
-  <si>
-    <t>sure, it's true but provocatively worded.</t>
-  </si>
-  <si>
-    <t>Bring into account cultural aspects. Not avoiding them or over emphasizing... Check with your client to see where you are regarding this balance</t>
   </si>
   <si>
     <t xml:space="preserve">Not like this. Be aware of ethnocentrism as you should be aware of cultural blindness. 
 </t>
   </si>
   <si>
+    <t>and take intentional steps to limit the effects of</t>
+  </si>
+  <si>
+    <t>duplicates previous?</t>
+  </si>
+  <si>
+    <t>Be aware of the unique characteristics of the resident (e.g. ethnic, cultural, spiritual, social, educational, linguistics, gender identity and expression, sexual orientation) and how these may influence mental health conversations, facilitated in an inclusive manner.</t>
+  </si>
+  <si>
+    <t>Reframe mental health conversations</t>
+  </si>
+  <si>
+    <t>The comma is redundant. So is the word 'about'</t>
+  </si>
+  <si>
     <t>Be aware of the fact that a wide range of concepts exists... (we can't know them all can we?)</t>
   </si>
   <si>
-    <t>Maybe also important? Try to understand and recognise common mental health challenges following forced migration (by which I mean not culturally bound but migration related issues)</t>
+    <t>Instead of mental health, experience and ways of communicating distress</t>
+  </si>
+  <si>
+    <t>I would say 'significant' rather than 'strong'</t>
+  </si>
+  <si>
+    <t>be aware that for many asylum seekers there is a connection between spirituality and mental health</t>
+  </si>
+  <si>
+    <t>It’s important for everyone</t>
+  </si>
+  <si>
+    <t>Specify spirituality</t>
+  </si>
+  <si>
+    <t>i would explicitly refer to the terms and labels we refer to here.</t>
+  </si>
+  <si>
+    <t>I'd saw 'be aware of' rather than 'be knowledgeable about'</t>
+  </si>
+  <si>
+    <t>Not mental health but distress</t>
+  </si>
+  <si>
+    <t>who?</t>
+  </si>
+  <si>
+    <t>Preferably belong to the asylum seeker's culture and speak the language.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I think it is good to know about the language, but not necessarily speak and understand it.  There are asylum seekers from 1001 countries and you cannot be knowledgeable in all of them. One can work with an interpreter
+</t>
+  </si>
+  <si>
+    <t>this is not realistic (language), ok, make use of interpreters / cultural brokers, demonstrate interest in the language and culture</t>
+  </si>
+  <si>
+    <t>Being able to speak the asylum seeker's language would be the ideal but good collaborative conversation with an interpreter is also useful. It is possible to work across cultures if we can be self-reflexive and are knowledgeable about others cultures.</t>
+  </si>
+  <si>
+    <t>This may be complicated, but is a valid general recommendation</t>
+  </si>
+  <si>
+    <t>I don't think 'residents' is the right word - maybe 'clients' or 'sanctuary seekers'</t>
+  </si>
+  <si>
+    <t>but with great caution, reflection, preparation and follow-up</t>
+  </si>
+  <si>
+    <t>only if openminded</t>
+  </si>
+  <si>
+    <t>mental health and psychosocial well-being</t>
+  </si>
+  <si>
+    <t>same as previous one</t>
+  </si>
+  <si>
+    <t>can be very demanding</t>
+  </si>
+  <si>
+    <t>'Signpost' is clearer than 'orientate'</t>
+  </si>
+  <si>
+    <t>Maybe ''Try to work in....'</t>
+  </si>
+  <si>
+    <t>if available... ideal situation</t>
+  </si>
+  <si>
+    <t>sure, it's true but provocatively worded.</t>
+  </si>
+  <si>
+    <t>advocate for the change of rules and regulations that cause barriers and harm</t>
+  </si>
+  <si>
+    <t>in certain contexts, and this to be done with utmost care and respect</t>
+  </si>
+  <si>
+    <t>Be willing to look at the rules and regulations with human heartedness. Rules and regulations should not be interpreted in black and white</t>
+  </si>
+  <si>
+    <t>if not harmful repercussions</t>
+  </si>
+  <si>
+    <t>If these seem unjust but take into account if this would create difficulties for the asylum seeker</t>
+  </si>
+  <si>
+    <t>This would need to be clarified.  What type of rules and regulations?</t>
+  </si>
+  <si>
+    <t>within reason if there are dangers affecting clients</t>
+  </si>
+  <si>
+    <t>this is not clear</t>
+  </si>
+  <si>
+    <t>add at the end: "...acknowledging and being flexible depending on what confidentiality means within the cultural context."</t>
+  </si>
+  <si>
+    <t>what does it look liek in practices</t>
+  </si>
+  <si>
+    <t>under some conditions (with training and supervision) this may be helpful</t>
+  </si>
+  <si>
+    <t>But it may be necessary if doing trauma based exposure therapy</t>
+  </si>
+  <si>
+    <t>I think the point is not to elicit MORE DETAILED ACCOUNTS THAN NECESSARY FOR THE PURPOSE(S) IN HAND</t>
+  </si>
+  <si>
+    <t>Initially.
+In another phase, other emphasis is possible</t>
+  </si>
+  <si>
+    <t>Traumatic past experiences need to be addressed, but should be done by a professional.  But should also be done at the time the asylum-seeker is ready for it</t>
+  </si>
+  <si>
+    <t>it depends</t>
+  </si>
+  <si>
+    <t>Agree, but refer to specialized care if needed.</t>
+  </si>
+  <si>
+    <t>depending on the specific situation</t>
+  </si>
+  <si>
+    <t>Detailed accounts may be needed in certain situations. I would say something like "Be judicious about eliciting..." rather than "avoid."</t>
+  </si>
+  <si>
+    <t>except when one is clearly asking to speak about and have one's past experiences acknowledged</t>
+  </si>
+  <si>
+    <t>not generalise about trauma</t>
+  </si>
+  <si>
+    <t>if possible</t>
+  </si>
+  <si>
+    <t>I'd omit 'similar to your own' or replace with 'which are as important/valid as your own'</t>
   </si>
   <si>
     <t>Similar to my own... is a bit too strong formulated for me</t>
   </si>
   <si>
+    <t>'similar' to your own, but it can be very different in view of procedure / discrimination, acknowledge these differences.</t>
+  </si>
+  <si>
+    <t>I don't believe that asylum seekers' struggles and challenges are similar to mine, hopes and dreams perhaps.</t>
+  </si>
+  <si>
+    <t>Would be dependent on situation</t>
+  </si>
+  <si>
     <t>as well as your limitations</t>
   </si>
   <si>
+    <t>why only needs and not also resources and strenghts?</t>
+  </si>
+  <si>
+    <t>Meaningless without clarifying what 'interacting' means</t>
+  </si>
+  <si>
     <t>Accept the fact that this type of work might be more time consuming</t>
   </si>
   <si>
+    <t>time can be a scare resource... only if possible.</t>
+  </si>
+  <si>
+    <t>include a culturally sensitive definition of compassion</t>
+  </si>
+  <si>
+    <t>curious with sensitivity for the way some questions may be responded to from those from a particular culture especially those that prioritize privacy</t>
+  </si>
+  <si>
+    <t>define</t>
+  </si>
+  <si>
+    <t>I think there are two components here which need to be separated</t>
+  </si>
+  <si>
+    <t>Not good formulation- deep respect is abstract and does not really mean much</t>
+  </si>
+  <si>
+    <t>I think this should be 'try to establish...'</t>
+  </si>
+  <si>
+    <t>Try to or strive to</t>
+  </si>
+  <si>
+    <t>Could add a trauma informed approach here</t>
+  </si>
+  <si>
+    <t>not sure i get this, or better, i get it but i think it is ambiguous</t>
+  </si>
+  <si>
+    <t>Unclear statement poorly formulated</t>
+  </si>
+  <si>
+    <t>Not sure about multilingual colleagues. Might also be worth invoking 'cultural mediators'</t>
+  </si>
+  <si>
+    <t>First preference is for speakers of seekers' native language and people who understand their culture.</t>
+  </si>
+  <si>
+    <t>translators etc need to be briefed and properly trained to the task at hand</t>
+  </si>
+  <si>
+    <t>More simple formulation would be helpful, . For example . Assess the need for interpretors and if needed suply;</t>
+  </si>
+  <si>
+    <t>This again uses jargon. good to explain what this means.</t>
+  </si>
+  <si>
     <t>Verbal and non-verbal aspects</t>
+  </si>
+  <si>
+    <t>You may need an an example of what active listening is.</t>
+  </si>
+  <si>
+    <t>Only if you understand the language</t>
+  </si>
+  <si>
+    <t>give example</t>
+  </si>
+  <si>
+    <t>And do not have equivalent in translation</t>
+  </si>
+  <si>
+    <t>such as...</t>
+  </si>
+  <si>
+    <t>Maybe 'where possible, ask ....</t>
+  </si>
+  <si>
+    <t>give example or define</t>
   </si>
   <si>
     <t>Yes, but try to be compehensive too. People are not always familiar with these type of questions. 
 Be clear and communicative about what you're asking. The openess is also in your attitude not only in the question</t>
   </si>
   <si>
+    <t>depends on kind of question, developmental phases,...</t>
+  </si>
+  <si>
+    <t>The non verbal communication and open-ended questions could fall under active listening.</t>
+  </si>
+  <si>
+    <t>Poorly worded. Facilitate conversation about mental health etc</t>
+  </si>
+  <si>
+    <t>unclear</t>
+  </si>
+  <si>
+    <t>for example...</t>
+  </si>
+  <si>
+    <t>what does approaches mean here?</t>
+  </si>
+  <si>
+    <t>some level mof self disclosure is essential</t>
+  </si>
+  <si>
     <t>and propose other suggestions, solutions as parallel options</t>
   </si>
   <si>
+    <t>Be committed to identifying and combing asylum seekers' preferred approaches and resources [...] with the ones you can offer</t>
+  </si>
+  <si>
+    <t>Simpler formulation . Idemtilying well, but following when it is context appropriate.</t>
+  </si>
+  <si>
+    <t>explain the verb "centre"</t>
+  </si>
+  <si>
+    <t>in relation to the context (e.g. migration policy limitations)</t>
+  </si>
+  <si>
+    <t>maybe rephrase to "persons centred approach"</t>
+  </si>
+  <si>
+    <t>Bit too complicated worded. Take serious and respect what they are saying, even when disagreeing</t>
+  </si>
+  <si>
+    <t>Not clear</t>
+  </si>
+  <si>
+    <t>Add 'or avoid rapid deterioration'</t>
+  </si>
+  <si>
+    <t>include which behaviors</t>
+  </si>
+  <si>
+    <t>rather difficult to know</t>
+  </si>
+  <si>
+    <t>Perhaps behaviours and expressions of distress....For example if a person expresses self-harm or harm to others, that wouldn't be considered a behavior.</t>
+  </si>
+  <si>
+    <t>depends on what these are, what is 'immediate'? won't be always possible</t>
+  </si>
+  <si>
+    <t>what woudl that be?</t>
+  </si>
+  <si>
+    <t>If no immediate response is possible, give information, try to give clear perspective or limits.</t>
+  </si>
+  <si>
+    <t>with some conversation about whether those concerns can be responded to immediately</t>
+  </si>
+  <si>
+    <t>Only when it is appropriate</t>
+  </si>
+  <si>
+    <t>Take the lead from asylum seekers and actively engage their respective communities in decision-making processes.</t>
+  </si>
+  <si>
+    <t>This needs expanding</t>
+  </si>
+  <si>
+    <t>meaning what?</t>
+  </si>
+  <si>
     <t>Difficult. I understand it, I think, but I wouldn't phrase it like that. Maybe there's an appeal to take the expert position. But at the same time there's cultural humility and not knowing... it's a matter of keeping both sides in balance</t>
   </si>
   <si>
+    <t>take the lead from asylum seekers regarding the most pressing concern/problem and how to approach it</t>
+  </si>
+  <si>
+    <t>In appropriate contexts, take the lead from asylum seekers</t>
+  </si>
+  <si>
+    <t>It is good to take the lead, but be attentive not to make the asylum-seek feel he/she does not have any important role here</t>
+  </si>
+  <si>
+    <t>depends on the situation, the needs and capacities of the person who is looking for support - dont take away peoples sense of control</t>
+  </si>
+  <si>
+    <t>co- collaborators</t>
+  </si>
+  <si>
+    <t>This depends on their understanding of the resources available. Often people who have just arrived do not know what they can get, so taking their lead would not serve them well.</t>
+  </si>
+  <si>
+    <t>Perhaps explain in more detail what this entails.</t>
+  </si>
+  <si>
+    <t>Not relevant in all cases</t>
+  </si>
+  <si>
+    <t>why only to adress feelings of powerlessness and helplessness?</t>
+  </si>
+  <si>
+    <t>and avoid focus on painful events and memories that can leave people feeling more vulnerable.</t>
+  </si>
+  <si>
+    <t>Approach the conversation keeping in mind not only their difficulties, suffering, pain, needs etc but also their retained strengths, as well as their newly acquired strengths</t>
+  </si>
+  <si>
+    <t>This may be better clarified if restated to :  "perspective to reduce potential feelings of powerlessness and helplessness."</t>
+  </si>
+  <si>
+    <t>Build a bridge between the asylum seeker's perspective and experiences and the resources and services available working involving people with refugee experiences in the process as peer workers.</t>
+  </si>
+  <si>
+    <t>good but kind of vague and abstract</t>
+  </si>
+  <si>
+    <t>if they are positive to them. you do not want a battered wife to sustain their relation with the husband, necessarily.</t>
+  </si>
+  <si>
+    <t>May not be possible and will lead to feelings of hopelessness</t>
+  </si>
+  <si>
+    <t>Encourage and enable asylum seekers to sustain existing relationships that align with their values and they perceive as supportive themselves.</t>
+  </si>
+  <si>
+    <t>existing positive or supportive relationships</t>
+  </si>
+  <si>
+    <t>depending on the nature  of relationships,,, some can be toxic</t>
+  </si>
+  <si>
+    <t>while being open to the possibility that some relationships have become problematic and tensions may need to be resolved first.</t>
+  </si>
+  <si>
+    <t>Unclear to which relationships it refers.</t>
+  </si>
+  <si>
+    <t>maybe add 'and build and sustain new ones'</t>
+  </si>
+  <si>
+    <t>'to facilitate' is clearer than 'aiding in'</t>
+  </si>
+  <si>
+    <t>'Be familiar with' rather than 'know'</t>
+  </si>
+  <si>
     <t>Know that there's a wide range of...</t>
   </si>
   <si>
+    <t>Before 'promoting resilience' it is imperative to first identify their existing resilient features, e.g. strengths, characteristics, relationships, etc</t>
+  </si>
+  <si>
+    <t>and how will they get to know these?</t>
+  </si>
+  <si>
+    <t>or know where to refer</t>
+  </si>
+  <si>
+    <t>unclear what are the mental health resources</t>
+  </si>
+  <si>
+    <t>'Be aware' rather than 'know'</t>
+  </si>
+  <si>
+    <t>Pay attention to mind-body connections and somatic experiences and expressions.</t>
+  </si>
+  <si>
+    <t>and what does that look like, what to look for?</t>
+  </si>
+  <si>
+    <t>'accompany asylum seekers WHERE THIS IS FEASIBLE AND NECESSARY'. This might need a bit more explanation...</t>
+  </si>
+  <si>
+    <t>If they agree, attention for autonomy.</t>
+  </si>
+  <si>
+    <t>if relevant (immediate responses)</t>
+  </si>
+  <si>
+    <t>add 'where appropriate'.</t>
+  </si>
+  <si>
+    <t>if one is properly trained in offering this, and aware of its limitations.</t>
+  </si>
+  <si>
+    <t>"If based on the five key principles of a sense of safety, calming, sense of self and community efficacy, connectedness and hope (which I found online, because I am not familiar with this approach).</t>
+  </si>
+  <si>
+    <t>and what is that?</t>
+  </si>
+  <si>
+    <t>only if resources and competences are present</t>
+  </si>
+  <si>
+    <t>This needs clarification</t>
+  </si>
+  <si>
+    <t>Provide psychological first aid as needed and if relevant.</t>
+  </si>
+  <si>
+    <t>when appropriate</t>
+  </si>
+  <si>
+    <t>'to help seeking AND THE PROVISION OF SUCH HELP'</t>
+  </si>
+  <si>
+    <t>a relational approach to help seeking and well-being</t>
+  </si>
+  <si>
+    <t>A relational approach.</t>
+  </si>
+  <si>
+    <t>this will need explanation</t>
+  </si>
+  <si>
+    <t>Person centred is better than survivor- what if loved ones haven’t survived- what does that mean to those who have - can increase feelings of survivor guilt</t>
+  </si>
+  <si>
     <t>Sorry, I don't understand this phrase. Sounds a bit strange to me.</t>
   </si>
   <si>
-    <t>also specifically in relation to the aspect of translators</t>
-  </si>
-  <si>
-    <t>I'd erase the word 'before'. I think there's no timeline here. It's always both.</t>
-  </si>
-  <si>
-    <t>Initially.
-In another phase, other emphasis is possible</t>
-  </si>
-  <si>
-    <t>experiences and outcomes</t>
-  </si>
-  <si>
-    <t>and take intentional steps to limit the effects of</t>
-  </si>
-  <si>
-    <t>and practice cultural humility</t>
-  </si>
-  <si>
-    <t>mental health care and psychosocial well-being</t>
-  </si>
-  <si>
-    <t>First preference is for speakers of seekers' native language and people who understand their culture.</t>
-  </si>
-  <si>
-    <t>and avoid focus on painful events and memories that can leave people feeling more vulnerable.</t>
-  </si>
-  <si>
-    <t>existing positive or supportive relationships</t>
+    <t>as long as this is explained what it means and it is not an empty slogan</t>
+  </si>
+  <si>
+    <t>a survivor and persons centred approach</t>
+  </si>
+  <si>
+    <t>I don't know the concept 'survivor-centred approach'.</t>
+  </si>
+  <si>
+    <t>Surviva;approch as wel as recognistion for pain and loss is relevant</t>
+  </si>
+  <si>
+    <t>i would call it, more largely a psychosocially informed approach, that includes a trauma focussed one but it is not limited to it</t>
+  </si>
+  <si>
+    <t>Adopt a trauma-informed approach with an understanding that what is traumatic for asylum seekers can vary widely and differ from your own perspective.</t>
+  </si>
+  <si>
+    <t>need to include what this means so it its clear how to</t>
+  </si>
+  <si>
+    <t>trauma centring can be detrimental</t>
+  </si>
+  <si>
+    <t>There are many trauma models which are somewhat rigid and not helpfully applicable and include ideas about irreparable damage.</t>
+  </si>
+  <si>
+    <t>that does not oversimplify and leave out important social and environmental contexts in understanding a client and promoting care.</t>
+  </si>
+  <si>
+    <t>trauma informed - as a part of a broader  approach</t>
+  </si>
+  <si>
+    <t>I'm not sure this is necessary. There are many evidence based approaches - why single out mindfulness?</t>
+  </si>
+  <si>
+    <t>might be good to try these out before reccomending them to others</t>
+  </si>
+  <si>
+    <t>'mindfulness practices' need some clarification</t>
+  </si>
+  <si>
+    <t>while being aware that some people prefer less passive approaches to help them modulate emotions.</t>
+  </si>
+  <si>
+    <t>Mindfulness is one of many  practices that can help to gain control over emotions.</t>
+  </si>
+  <si>
+    <t>To an extent</t>
+  </si>
+  <si>
+    <t>... if you are really familiar with those cultures.</t>
+  </si>
+  <si>
+    <t>Depends who are the frontline workers and how much  can be expecetd from them.</t>
+  </si>
+  <si>
+    <t>Normalise, but acknowledge the difficulties regarding ther situation and context. Normal reaction in an abnormal situation.</t>
+  </si>
+  <si>
+    <t>Employ de-escalation techniques AS NECESSARY....</t>
+  </si>
+  <si>
+    <t>often these are empty slogans</t>
+  </si>
+  <si>
+    <t>depending on the person</t>
+  </si>
+  <si>
+    <t>Adjust culturally sensitive de-escalation teachiques and support emotional regulation</t>
+  </si>
+  <si>
+    <t>as well as sensitive to their needs, strengths and preferences for help</t>
+  </si>
+  <si>
+    <t>where relevant</t>
+  </si>
+  <si>
+    <t>Initiate scalable psychological interventions integrating them in existing systems and practices.</t>
   </si>
   <si>
     <t>that are culturally appropriate and favored by the asylum seekers</t>
   </si>
   <si>
+    <t>when appropriate and able to also provide supervision for those implementing</t>
+  </si>
+  <si>
+    <t>This needs further clarification- is this to do with finding ways with the asylum seeker to identify progress? Scalable interventions are not always able to fit with an individual and the context</t>
+  </si>
+  <si>
+    <t>This would have to be defined and also with the caveat that scalable interventions likely need modification to fit the unique needs of individuals and communities based on context and culture.</t>
+  </si>
+  <si>
+    <t>I suggest 'be familiar with evidence-based approaches that help....</t>
+  </si>
+  <si>
     <t>prevent and respond to</t>
   </si>
   <si>
-    <t>a relational approach to help seeking and well-being</t>
-  </si>
-  <si>
-    <t>practical challenges, including fear of authorities,</t>
-  </si>
-  <si>
-    <t>mental health and psychosocial well-being</t>
-  </si>
-  <si>
-    <t>make the statement a bit easier to understand</t>
-  </si>
-  <si>
-    <t>depends on kind of question, developmental phases,...</t>
-  </si>
-  <si>
-    <t>in relation to the context (e.g. migration policy limitations)</t>
-  </si>
-  <si>
-    <t>depends on what these are, what is 'immediate'? won't be always possible</t>
-  </si>
-  <si>
-    <t>not sure what is meant with 'support'</t>
-  </si>
-  <si>
-    <t>but with great caution, reflection, preparation and follow-up</t>
-  </si>
-  <si>
-    <t>same as previous one</t>
-  </si>
-  <si>
-    <t>be aware that for many asylum seekers there is a connection between spirituality and mental health</t>
-  </si>
-  <si>
-    <t>Be committed to identifying and combing asylum seekers' preferred approaches and resources [...] with the ones you can offer</t>
-  </si>
-  <si>
-    <t>take the lead from asylum seekers regarding the most pressing concern/problem and how to approach it</t>
-  </si>
-  <si>
-    <t>...before they feel ready...</t>
-  </si>
-  <si>
-    <t>advocate for the change of rules and regulations that cause barriers and harm</t>
-  </si>
-  <si>
-    <t>In appropriate contexts, take the lead from asylum seekers</t>
-  </si>
-  <si>
-    <t>Approach the conversation keeping in mind not only their difficulties, suffering, pain, needs etc but also their retained strengths, as well as their newly acquired strengths</t>
-  </si>
-  <si>
-    <t>Before 'promoting resilience' it is imperative to first identify their existing resilient features, e.g. strengths, characteristics, relationships, etc</t>
-  </si>
-  <si>
-    <t>as long as this is explained what it means and it is not an empty slogan</t>
-  </si>
-  <si>
-    <t>often these are empty slogans</t>
-  </si>
-  <si>
-    <t>if one is properly trained in offering this, and aware of its limitations.</t>
+    <t>Know how to help prevent gender-based violence and child protection violations from a non-Eurocentric perspective.</t>
+  </si>
+  <si>
+    <t>always expect SGBV and other types of violence when people are under severe pressure or in extreme distress</t>
+  </si>
+  <si>
+    <t>Prevent and identify</t>
+  </si>
+  <si>
+    <t>Poor formula child protection violations.</t>
+  </si>
+  <si>
+    <t>need to specify 'local/regional/national' asylum policy...</t>
+  </si>
+  <si>
+    <t>not the first priority</t>
   </si>
   <si>
     <t>yes, but not in abstract but in relation to the persons in front of you</t>
-  </si>
-  <si>
-    <t>in certain contexts, and this to be done with utmost care and respect</t>
-  </si>
-  <si>
-    <t>Avoid excessive culturalisation and a disproportionate emphasis on cultural influences and stereotypes, when it is detrimental to other important considerations during the conversation.</t>
-  </si>
-  <si>
-    <t>Preferably belong to the asylum seeker's culture and speak the language.</t>
-  </si>
-  <si>
-    <t>Adopt a trauma-informed approach with an understanding that what is traumatic for asylum seekers can vary widely and differ from your own perspective.</t>
-  </si>
-  <si>
-    <t>Know how to help prevent gender-based violence and child protection violations from a non-Eurocentric perspective.</t>
-  </si>
-  <si>
-    <t>Pay attention to mind-body connections and somatic experiences and expressions.</t>
-  </si>
-  <si>
-    <t>"If based on the five key principles of a sense of safety, calming, sense of self and community efficacy, connectedness and hope (which I found online, because I am not familiar with this approach).</t>
   </si>
   <si>
     <t>quoting here from our 2021 article: "The historical propensity of frameworks for understanding
@@ -1819,461 +2084,196 @@
 “people” and as a “culture.”</t>
   </si>
   <si>
-    <t>add at the end: "...acknowledging and being flexible depending on what confidentiality means within the cultural context."</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I think it is good to know about the language, but not necessarily speak and understand it.  There are asylum seekers from 1001 countries and you cannot be knowledgeable in all of them. One can work with an interpreter
-</t>
-  </si>
-  <si>
-    <t>It is good to take the lead, but be attentive not to make the asylum-seek feel he/she does not have any important role here</t>
+    <t>It's not always useful to try and identify all stressors, more to consider the impact and how manage that.</t>
+  </si>
+  <si>
+    <t>agree, but do not generalize, be aware that every individual context may differ.</t>
+  </si>
+  <si>
+    <t>also specifically in relation to the aspect of translators</t>
+  </si>
+  <si>
+    <t>some may not like to narrate the story many times</t>
+  </si>
+  <si>
+    <t>not before but at the same time, i am against the kind of chronology suggested by the proposition. what about asylum seekers with severe mental disorders?</t>
+  </si>
+  <si>
+    <t>I would replace 'typically' with 'often'</t>
+  </si>
+  <si>
+    <t>I'd erase the word 'before'. I think there's no timeline here. It's always both.</t>
+  </si>
+  <si>
+    <t>practical challenges, including fear of authorities,</t>
+  </si>
+  <si>
+    <t>...before they feel ready...</t>
+  </si>
+  <si>
+    <t>Both in parallel, try to identify the priorities.</t>
+  </si>
+  <si>
+    <t>not all</t>
+  </si>
+  <si>
+    <t>more recognise that it influence than realise</t>
+  </si>
+  <si>
+    <t>feels vague to me.</t>
+  </si>
+  <si>
+    <t>can evoke</t>
+  </si>
+  <si>
+    <t>for some</t>
+  </si>
+  <si>
+    <t>**can evoke strong emotions</t>
+  </si>
+  <si>
+    <t>I think this should have a caveat such as 'where possible' or 'where appropriate'</t>
+  </si>
+  <si>
+    <t>complicated. in general yes, but hard to do so if you really feel there is no basis for the claim.</t>
+  </si>
+  <si>
+    <t>not sure what is meant with 'support'</t>
   </si>
   <si>
     <t>Not necessarily.  One needs to know the full facts before expressing support. But begin from the position of support, rather non non-supportive approach that might been seen as hostile</t>
   </si>
   <si>
-    <t>Be willing to look at the rules and regulations with human heartedness. Rules and regulations should not be interpreted in black and white</t>
-  </si>
-  <si>
-    <t>Traumatic past experiences need to be addressed, but should be done by a professional.  But should also be done at the time the asylum-seeker is ready for it</t>
-  </si>
-  <si>
-    <t>I do not like the word determining, suggest to use impact</t>
-  </si>
-  <si>
-    <t>this sentence is not very clear. What do you want people to do?</t>
-  </si>
-  <si>
-    <t>be aware that within one culture multiple cultures exist</t>
-  </si>
-  <si>
-    <t>Why not do this formally?</t>
-  </si>
-  <si>
-    <t>particularly important to unpack the unconscious biases</t>
-  </si>
-  <si>
-    <t>keep in mind this could be due to individual differences, not particularly linked to culture</t>
-  </si>
-  <si>
-    <t>translators etc need to be briefed and properly trained to the task at hand</t>
-  </si>
-  <si>
-    <t>maybe rephrase to "persons centred approach"</t>
-  </si>
-  <si>
-    <t>include which behaviors</t>
-  </si>
-  <si>
-    <t>what woudl that be?</t>
-  </si>
-  <si>
-    <t>depends on the situation, the needs and capacities of the person who is looking for support - dont take away peoples sense of control</t>
-  </si>
-  <si>
-    <t>and how will they get to know these?</t>
-  </si>
-  <si>
-    <t>a survivor and persons centred approach</t>
-  </si>
-  <si>
-    <t>need to include what this means so it its clear how to</t>
-  </si>
-  <si>
-    <t>might be good to try these out before reccomending them to others</t>
-  </si>
-  <si>
-    <t>when appropriate and able to also provide supervision for those implementing</t>
-  </si>
-  <si>
-    <t>always expect SGBV and other types of violence when people are under severe pressure or in extreme distress</t>
-  </si>
-  <si>
-    <t>and what does that look like, what to look for?</t>
-  </si>
-  <si>
-    <t>and what is that?</t>
-  </si>
-  <si>
-    <t>more recognise that it influence than realise</t>
-  </si>
-  <si>
     <t>what does that mean?</t>
   </si>
   <si>
+    <t>support for the resident, do not give hope where it is not appropriate. Recognise the limits.</t>
+  </si>
+  <si>
+    <t>first examine the situation thoroughly</t>
+  </si>
+  <si>
+    <t>There are times when supporting a claim is not warranted, and may to more harm than good to the asylum seeker or his/her family. I would modify this to support the asylum seeker's decisions.</t>
+  </si>
+  <si>
+    <t>unless it is a clearly fraudulent claim</t>
+  </si>
+  <si>
+    <t>It is unclear</t>
+  </si>
+  <si>
     <t>Maybe just acknowledge (not identify) injustices and perceived injustices</t>
   </si>
   <si>
+    <t>It is too much generalised</t>
+  </si>
+  <si>
+    <t>May be difficult to do in practice</t>
+  </si>
+  <si>
+    <t>explain how to do this mitigation, eg, give an example</t>
+  </si>
+  <si>
     <t>agree but how to do that?</t>
   </si>
   <si>
+    <t>not always</t>
+  </si>
+  <si>
+    <t>Need to accept that there is a power inequality in your relationship but try to mitigate it.</t>
+  </si>
+  <si>
+    <t>can the person resist without loosing their job?</t>
+  </si>
+  <si>
+    <t>Recognise and resist oppressive government policies and measures through advocacy engaging aslym seekers' communities and other stakeholders.</t>
+  </si>
+  <si>
+    <t>feels pretty vague and big...too inclusive...are all govt measures and policies bad?</t>
+  </si>
+  <si>
+    <t>Respect your own limits and well-being.</t>
+  </si>
+  <si>
+    <t>it is too general, previous quotes were better</t>
+  </si>
+  <si>
     <t>agree but hwo to do that?</t>
   </si>
   <si>
+    <t>only idf the human rights donot clash with the family/ collective rights</t>
+  </si>
+  <si>
+    <t>these need to be defined</t>
+  </si>
+  <si>
+    <t>It is also too general and unclear how to apply. I</t>
+  </si>
+  <si>
+    <t>it is well formulated but maybe not that important in the context</t>
+  </si>
+  <si>
+    <t>not just the political debate, but the way you perceive the world, relationships and yourself</t>
+  </si>
+  <si>
     <t>agree - explain how this may be influencing your life</t>
   </si>
   <si>
+    <t>This might need to be clarified a bit.  How would it impact how a person perceives political debates?</t>
+  </si>
+  <si>
+    <t>one own or from the assited people? ambigouos</t>
+  </si>
+  <si>
+    <t>Be prepared to cope with strong emotions seeking supervision when necessary or other mental health support via the organization.</t>
+  </si>
+  <si>
+    <t>maybe add 'in yourself and in others'</t>
+  </si>
+  <si>
     <t>explain how to</t>
   </si>
   <si>
+    <t>tolerate strong emotions sounds very passive. Deal with?</t>
+  </si>
+  <si>
+    <t>This would need to be clarified.  How can a person be prepared to tolerate strong emotions and why would they need to be prepared.  For example, from learning of stories from the asylum seekers?</t>
+  </si>
+  <si>
     <t>how</t>
   </si>
   <si>
+    <t>avoid burnout</t>
+  </si>
+  <si>
+    <t>balancing with resources for client care</t>
+  </si>
+  <si>
+    <t>but not at the expense of peer support and organizational responsibility to address systemic stressors</t>
+  </si>
+  <si>
+    <t>too vague and broad</t>
+  </si>
+  <si>
     <t>explain why this is important</t>
   </si>
   <si>
-    <t>this is not clear</t>
-  </si>
-  <si>
-    <t>what does it look liek in practices</t>
-  </si>
-  <si>
-    <t>it depends</t>
-  </si>
-  <si>
-    <t>I read some conflict in this statement. I think several important considerations should exist in parallel, not competing.</t>
-  </si>
-  <si>
-    <t>this is not realistic (language), ok, make use of interpreters / cultural brokers, demonstrate interest in the language and culture</t>
-  </si>
-  <si>
-    <t>I don't think this should be necessarily 'informally'. Some structured point of attention can direct this assessment.</t>
-  </si>
-  <si>
-    <t>'similar' to your own, but it can be very different in view of procedure / discrimination, acknowledge these differences.</t>
-  </si>
-  <si>
-    <t>If no immediate response is possible, give information, try to give clear perspective or limits.</t>
-  </si>
-  <si>
-    <t>or know where to refer</t>
-  </si>
-  <si>
-    <t>I don't know the concept 'survivor-centred approach'.</t>
-  </si>
-  <si>
-    <t>'mindfulness practices' need some clarification</t>
-  </si>
-  <si>
-    <t>Normalise, but acknowledge the difficulties regarding ther situation and context. Normal reaction in an abnormal situation.</t>
-  </si>
-  <si>
-    <t>Prevent and identify</t>
-  </si>
-  <si>
-    <t>If they agree, attention for autonomy.</t>
-  </si>
-  <si>
-    <t>agree, but do not generalize, be aware that every individual context may differ.</t>
-  </si>
-  <si>
-    <t>Both in parallel, try to identify the priorities.</t>
-  </si>
-  <si>
-    <t>support for the resident, do not give hope where it is not appropriate. Recognise the limits.</t>
-  </si>
-  <si>
-    <t>Respect your own limits and well-being.</t>
-  </si>
-  <si>
-    <t>tolerate strong emotions sounds very passive. Deal with?</t>
-  </si>
-  <si>
-    <t>Agree, but refer to specialized care if needed.</t>
-  </si>
-  <si>
-    <t>time can be a scare resource... only if possible.</t>
-  </si>
-  <si>
-    <t>some level mof self disclosure is essential</t>
-  </si>
-  <si>
-    <t>rather difficult to know</t>
-  </si>
-  <si>
-    <t>co- collaborators</t>
-  </si>
-  <si>
-    <t>depending on the nature  of relationships,,, some can be toxic</t>
-  </si>
-  <si>
-    <t>trauma centring can be detrimental</t>
-  </si>
-  <si>
-    <t>depending on the person</t>
-  </si>
-  <si>
-    <t>only if resources and competences are present</t>
-  </si>
-  <si>
-    <t>not the first priority</t>
-  </si>
-  <si>
-    <t>some may not like to narrate the story many times</t>
-  </si>
-  <si>
-    <t>not all</t>
-  </si>
-  <si>
-    <t>for some</t>
-  </si>
-  <si>
-    <t>first examine the situation thoroughly</t>
-  </si>
-  <si>
-    <t>not always</t>
-  </si>
-  <si>
-    <t>only idf the human rights donot clash with the family/ collective rights</t>
-  </si>
-  <si>
-    <t>avoid burnout</t>
-  </si>
-  <si>
-    <t>balancing with resources for client care</t>
+    <t>i have a problem with the versb tolerate in this context</t>
+  </si>
+  <si>
+    <t>Address your own feelings of powerlessness and helplessness due to lack of immediate solutions through engaging the organization and seeking appropriate support in the form of supervision or additional training.</t>
+  </si>
+  <si>
+    <t>Recognise that it may be necessary to tolerate feelings....</t>
   </si>
   <si>
     <t>if resources are present</t>
   </si>
   <si>
-    <t>only if openminded</t>
-  </si>
-  <si>
-    <t>can be very demanding</t>
-  </si>
-  <si>
-    <t>if available... ideal situation</t>
-  </si>
-  <si>
-    <t>if not harmful repercussions</t>
-  </si>
-  <si>
-    <t>depending on the specific situation</t>
-  </si>
-  <si>
-    <t>not generalise about trauma</t>
-  </si>
-  <si>
-    <t>if possible</t>
-  </si>
-  <si>
-    <t>Being able to speak the asylum seeker's language would be the ideal but good collaborative conversation with an interpreter is also useful. It is possible to work across cultures if we can be self-reflexive and are knowledgeable about others cultures.</t>
-  </si>
-  <si>
-    <t>There are many trauma models which are somewhat rigid and not helpfully applicable and include ideas about irreparable damage.</t>
-  </si>
-  <si>
-    <t>This needs further clarification- is this to do with finding ways with the asylum seeker to identify progress? Scalable interventions are not always able to fit with an individual and the context</t>
-  </si>
-  <si>
-    <t>This needs clarification</t>
-  </si>
-  <si>
-    <t>A relational approach.</t>
-  </si>
-  <si>
-    <t>It's not always useful to try and identify all stressors, more to consider the impact and how manage that.</t>
-  </si>
-  <si>
-    <t>Need to accept that there is a power inequality in your relationship but try to mitigate it.</t>
-  </si>
-  <si>
-    <t>If these seem unjust but take into account if this would create difficulties for the asylum seeker</t>
-  </si>
-  <si>
-    <t>It's not clear to me what "informally" means with regards to assessment. Some informal assessment I would agree with, others I would not.</t>
-  </si>
-  <si>
-    <t>I don't believe that asylum seekers' struggles and challenges are similar to mine, hopes and dreams perhaps.</t>
-  </si>
-  <si>
-    <t>This depends on their understanding of the resources available. Often people who have just arrived do not know what they can get, so taking their lead would not serve them well.</t>
-  </si>
-  <si>
-    <t>... if you are really familiar with those cultures.</t>
-  </si>
-  <si>
-    <t>There are times when supporting a claim is not warranted, and may to more harm than good to the asylum seeker or his/her family. I would modify this to support the asylum seeker's decisions.</t>
-  </si>
-  <si>
     <t>"Acknowledge" rather than "tolerate."</t>
   </si>
   <si>
-    <t>Detailed accounts may be needed in certain situations. I would say something like "Be judicious about eliciting..." rather than "avoid."</t>
-  </si>
-  <si>
-    <t>Acknowledge that the intersection of cultural norms and values, life experiences, societal positions, and social categories (e.g., gender, sexual orientation) interact in determining mental health experiences.</t>
-  </si>
-  <si>
-    <t>This may be complicated, but is a valid general recommendation</t>
-  </si>
-  <si>
-    <t>You might need standards for this one.  For example, how would the frontline worker informally assess acculturation?</t>
-  </si>
-  <si>
-    <t>You may need an an example of what active listening is.</t>
-  </si>
-  <si>
-    <t>The non verbal communication and open-ended questions could fall under active listening.</t>
-  </si>
-  <si>
-    <t>Perhaps behaviours and expressions of distress....For example if a person expresses self-harm or harm to others, that wouldn't be considered a behavior.</t>
-  </si>
-  <si>
-    <t>Perhaps explain in more detail what this entails.</t>
-  </si>
-  <si>
-    <t>This may be better clarified if restated to :  "perspective to reduce potential feelings of powerlessness and helplessness."</t>
-  </si>
-  <si>
-    <t>This would have to be defined and also with the caveat that scalable interventions likely need modification to fit the unique needs of individuals and communities based on context and culture.</t>
-  </si>
-  <si>
-    <t>Provide psychological first aid as needed and if relevant.</t>
-  </si>
-  <si>
-    <t>**can evoke strong emotions</t>
-  </si>
-  <si>
-    <t>This might need to be clarified a bit.  How would it impact how a person perceives political debates?</t>
-  </si>
-  <si>
-    <t>This would need to be clarified.  How can a person be prepared to tolerate strong emotions and why would they need to be prepared.  For example, from learning of stories from the asylum seekers?</t>
-  </si>
-  <si>
-    <t>This would need to be clarified.  What type of rules and regulations?</t>
-  </si>
-  <si>
-    <t>include a culturally sensitive definition of compassion</t>
-  </si>
-  <si>
-    <t>curious with sensitivity for the way some questions may be responded to from those from a particular culture especially those that prioritize privacy</t>
-  </si>
-  <si>
-    <t>define</t>
-  </si>
-  <si>
-    <t>with some conversation about whether those concerns can be responded to immediately</t>
-  </si>
-  <si>
-    <t>while being open to the possibility that some relationships have become problematic and tensions may need to be resolved first.</t>
-  </si>
-  <si>
-    <t>that does not oversimplify and leave out important social and environmental contexts in understanding a client and promoting care.</t>
-  </si>
-  <si>
-    <t>while being aware that some people prefer less passive approaches to help them modulate emotions.</t>
-  </si>
-  <si>
-    <t>as well as sensitive to their needs, strengths and preferences for help</t>
-  </si>
-  <si>
-    <t>when appropriate</t>
-  </si>
-  <si>
-    <t>unless it is a clearly fraudulent claim</t>
-  </si>
-  <si>
-    <t>these need to be defined</t>
-  </si>
-  <si>
-    <t>but not at the expense of peer support and organizational responsibility to address systemic stressors</t>
-  </si>
-  <si>
     <t>reflect also on what environmental factors may be contributing</t>
-  </si>
-  <si>
-    <t>within reason if there are dangers affecting clients</t>
-  </si>
-  <si>
-    <t>except when one is clearly asking to speak about and have one's past experiences acknowledged</t>
-  </si>
-  <si>
-    <t>Shape or make instead of determine</t>
-  </si>
-  <si>
-    <t>Reframe mental health conversations</t>
-  </si>
-  <si>
-    <t>Instead of mental health, experience and ways of communicating distress</t>
-  </si>
-  <si>
-    <t>It’s important for everyone</t>
-  </si>
-  <si>
-    <t>Not mental health but distress</t>
-  </si>
-  <si>
-    <t>Cultural humility doesn’t mean anything</t>
-  </si>
-  <si>
-    <t>Not western but euro American</t>
-  </si>
-  <si>
-    <t>Views and understanding of their situation</t>
-  </si>
-  <si>
-    <t>Not good formulation- deep respect is abstract and does not really mean much</t>
-  </si>
-  <si>
-    <t>Could add a trauma informed approach here</t>
-  </si>
-  <si>
-    <t>Unclear statement poorly formulated</t>
-  </si>
-  <si>
-    <t>And do not have equivalent in translation</t>
-  </si>
-  <si>
-    <t>Poorly worded. Facilitate conversation about mental health etc</t>
-  </si>
-  <si>
-    <t>Poor formula child protection violations.</t>
-  </si>
-  <si>
-    <t>Specify spirituality</t>
-  </si>
-  <si>
-    <t>More simple formulation would be helpful, . For example . Assess the need for interpretors and if needed suply;</t>
-  </si>
-  <si>
-    <t>unclear</t>
-  </si>
-  <si>
-    <t>Simpler formulation . Idemtilying well, but following when it is context appropriate.</t>
-  </si>
-  <si>
-    <t>Unclear to which relationships it refers.</t>
-  </si>
-  <si>
-    <t>unclear what are the mental health resources</t>
-  </si>
-  <si>
-    <t>Surviva;approch as wel as recognistion for pain and loss is relevant</t>
-  </si>
-  <si>
-    <t>trauma informed - as a part of a broader  approach</t>
-  </si>
-  <si>
-    <t>Mindfulness is one of many  practices that can help to gain control over emotions.</t>
-  </si>
-  <si>
-    <t>Depends who are the frontline workers and how much  can be expecetd from them.</t>
-  </si>
-  <si>
-    <t>Adjust culturally sensitive de-escalation teachiques and support emotional regulation</t>
-  </si>
-  <si>
-    <t>It is unclear</t>
-  </si>
-  <si>
-    <t>It is too much generalised</t>
-  </si>
-  <si>
-    <t>It is also too general and unclear how to apply. I</t>
-  </si>
-  <si>
-    <t>Bit too complicated worded. Take serious and respect what they are saying, even when disagreeing</t>
   </si>
 </sst>
 </file>
@@ -2361,7 +2361,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C3" t="s">
         <v>344</v>
@@ -2378,13 +2378,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="C4" t="s">
         <v>344</v>
       </c>
       <c r="D4" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E4" t="s">
         <v>448</v>
@@ -2395,13 +2395,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="C5" t="s">
         <v>344</v>
       </c>
       <c r="D5" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E5" t="s">
         <v>449</v>
@@ -2412,16 +2412,16 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="C6" t="s">
         <v>344</v>
       </c>
       <c r="D6" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E6" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
     </row>
     <row r="7">
@@ -2429,16 +2429,16 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="C7" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D7" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="E7" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="8">
@@ -2446,16 +2446,16 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="C8" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D8" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="E8" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="9">
@@ -2463,16 +2463,16 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C9" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D9" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="E9" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="10">
@@ -2480,16 +2480,16 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="C10" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D10" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="E10" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
     </row>
     <row r="11">
@@ -2497,16 +2497,16 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="C11" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D11" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="E11" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
     </row>
     <row r="12">
@@ -2514,16 +2514,16 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="C12" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D12" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="E12" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
     </row>
     <row r="13">
@@ -2531,16 +2531,16 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="C13" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="D13" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="E13" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
     </row>
     <row r="14">
@@ -2548,16 +2548,16 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="C14" t="s">
         <v>344</v>
       </c>
       <c r="D14" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="E14" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
     </row>
     <row r="15">
@@ -2565,16 +2565,16 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C15" t="s">
         <v>344</v>
       </c>
       <c r="D15" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="E15" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
     </row>
     <row r="16">
@@ -2582,16 +2582,16 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="C16" t="s">
         <v>344</v>
       </c>
       <c r="D16" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="E16" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
     </row>
     <row r="17">
@@ -2599,16 +2599,16 @@
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="C17" t="s">
         <v>344</v>
       </c>
       <c r="D17" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E17" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
     </row>
     <row r="18">
@@ -2616,16 +2616,16 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="C18" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="D18" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="E18" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
     </row>
     <row r="19">
@@ -2633,16 +2633,16 @@
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="C19" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="D19" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="E19" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
     </row>
     <row r="20">
@@ -2650,16 +2650,16 @@
         <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C20" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D20" t="s">
         <v>361</v>
       </c>
       <c r="E20" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
     </row>
     <row r="21">
@@ -2667,16 +2667,16 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>321</v>
+        <v>332</v>
       </c>
       <c r="C21" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D21" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="E21" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
     </row>
     <row r="22">
@@ -2684,16 +2684,16 @@
         <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C22" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D22" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E22" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
     </row>
     <row r="23">
@@ -2701,16 +2701,16 @@
         <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>321</v>
+        <v>333</v>
       </c>
       <c r="C23" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="D23" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="E23" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
     </row>
     <row r="24">
@@ -2718,16 +2718,16 @@
         <v>26</v>
       </c>
       <c r="B24" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="C24" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="D24" t="s">
-        <v>374</v>
+        <v>363</v>
       </c>
       <c r="E24" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
     </row>
     <row r="25">
@@ -2738,13 +2738,13 @@
         <v>321</v>
       </c>
       <c r="C25" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="D25" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="E25" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
     </row>
     <row r="26">
@@ -2752,16 +2752,16 @@
         <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C26" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="D26" t="s">
-        <v>376</v>
+        <v>363</v>
       </c>
       <c r="E26" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
     </row>
     <row r="27">
@@ -2769,16 +2769,16 @@
         <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="C27" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="D27" t="s">
-        <v>377</v>
+        <v>363</v>
       </c>
       <c r="E27" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
     </row>
     <row r="28">
@@ -2786,16 +2786,16 @@
         <v>30</v>
       </c>
       <c r="B28" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C28" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="D28" t="s">
-        <v>378</v>
+        <v>363</v>
       </c>
       <c r="E28" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
     </row>
     <row r="29">
@@ -2803,16 +2803,16 @@
         <v>31</v>
       </c>
       <c r="B29" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="C29" t="s">
         <v>344</v>
       </c>
       <c r="D29" t="s">
-        <v>379</v>
+        <v>364</v>
       </c>
       <c r="E29" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
     </row>
     <row r="30">
@@ -2820,16 +2820,16 @@
         <v>32</v>
       </c>
       <c r="B30" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="C30" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="D30" t="s">
-        <v>380</v>
+        <v>364</v>
       </c>
       <c r="E30" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
     </row>
     <row r="31">
@@ -2837,16 +2837,16 @@
         <v>33</v>
       </c>
       <c r="B31" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="C31" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="D31" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="E31" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
     </row>
     <row r="32">
@@ -2854,16 +2854,16 @@
         <v>34</v>
       </c>
       <c r="B32" t="s">
-        <v>322</v>
+        <v>332</v>
       </c>
       <c r="C32" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="D32" t="s">
-        <v>381</v>
+        <v>364</v>
       </c>
       <c r="E32" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
     </row>
     <row r="33">
@@ -2871,16 +2871,16 @@
         <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>322</v>
+        <v>334</v>
       </c>
       <c r="C33" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="D33" t="s">
-        <v>382</v>
+        <v>364</v>
       </c>
       <c r="E33" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
     </row>
     <row r="34">
@@ -2888,16 +2888,16 @@
         <v>36</v>
       </c>
       <c r="B34" t="s">
-        <v>322</v>
+        <v>335</v>
       </c>
       <c r="C34" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="D34" t="s">
-        <v>383</v>
+        <v>364</v>
       </c>
       <c r="E34" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
     </row>
     <row r="35">
@@ -2908,13 +2908,13 @@
         <v>322</v>
       </c>
       <c r="C35" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D35" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="E35" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
     </row>
     <row r="36">
@@ -2922,16 +2922,16 @@
         <v>38</v>
       </c>
       <c r="B36" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="C36" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D36" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="E36" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
     </row>
     <row r="37">
@@ -2939,16 +2939,16 @@
         <v>39</v>
       </c>
       <c r="B37" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="C37" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D37" t="s">
-        <v>384</v>
+        <v>365</v>
       </c>
       <c r="E37" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
     </row>
     <row r="38">
@@ -2956,16 +2956,16 @@
         <v>40</v>
       </c>
       <c r="B38" t="s">
-        <v>322</v>
+        <v>332</v>
       </c>
       <c r="C38" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="D38" t="s">
-        <v>385</v>
+        <v>365</v>
       </c>
       <c r="E38" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
     </row>
     <row r="39">
@@ -2973,16 +2973,16 @@
         <v>41</v>
       </c>
       <c r="B39" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C39" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="D39" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="E39" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
     </row>
     <row r="40">
@@ -2990,16 +2990,16 @@
         <v>42</v>
       </c>
       <c r="B40" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="C40" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="D40" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E40" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
     </row>
     <row r="41">
@@ -3007,16 +3007,16 @@
         <v>43</v>
       </c>
       <c r="B41" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C41" t="s">
         <v>344</v>
       </c>
       <c r="D41" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="E41" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
     </row>
     <row r="42">
@@ -3030,10 +3030,10 @@
         <v>344</v>
       </c>
       <c r="D42" t="s">
-        <v>386</v>
+        <v>366</v>
       </c>
       <c r="E42" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
     </row>
     <row r="43">
@@ -3041,16 +3041,16 @@
         <v>45</v>
       </c>
       <c r="B43" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C43" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="D43" t="s">
-        <v>383</v>
+        <v>367</v>
       </c>
       <c r="E43" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
     </row>
     <row r="44">
@@ -3058,16 +3058,16 @@
         <v>46</v>
       </c>
       <c r="B44" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="C44" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D44" t="s">
-        <v>387</v>
+        <v>367</v>
       </c>
       <c r="E44" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
     </row>
     <row r="45">
@@ -3078,13 +3078,13 @@
         <v>323</v>
       </c>
       <c r="C45" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D45" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="E45" t="s">
-        <v>484</v>
+        <v>489</v>
       </c>
     </row>
     <row r="46">
@@ -3092,16 +3092,16 @@
         <v>48</v>
       </c>
       <c r="B46" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C46" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D46" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="E46" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
     </row>
     <row r="47">
@@ -3109,16 +3109,16 @@
         <v>49</v>
       </c>
       <c r="B47" t="s">
-        <v>323</v>
+        <v>336</v>
       </c>
       <c r="C47" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="D47" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="E47" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
     </row>
     <row r="48">
@@ -3129,13 +3129,13 @@
         <v>323</v>
       </c>
       <c r="C48" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="D48" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="E48" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
     </row>
     <row r="49">
@@ -3143,16 +3143,16 @@
         <v>51</v>
       </c>
       <c r="B49" t="s">
-        <v>323</v>
+        <v>337</v>
       </c>
       <c r="C49" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="D49" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="E49" t="s">
-        <v>488</v>
+        <v>493</v>
       </c>
     </row>
     <row r="50">
@@ -3160,16 +3160,16 @@
         <v>52</v>
       </c>
       <c r="B50" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="C50" t="s">
         <v>344</v>
       </c>
       <c r="D50" t="s">
-        <v>359</v>
+        <v>369</v>
       </c>
       <c r="E50" t="s">
-        <v>489</v>
+        <v>494</v>
       </c>
     </row>
     <row r="51">
@@ -3177,16 +3177,16 @@
         <v>53</v>
       </c>
       <c r="B51" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="C51" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="D51" t="s">
-        <v>388</v>
+        <v>370</v>
       </c>
       <c r="E51" t="s">
-        <v>490</v>
+        <v>463</v>
       </c>
     </row>
     <row r="52">
@@ -3197,13 +3197,13 @@
         <v>324</v>
       </c>
       <c r="C52" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="D52" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="E52" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
     </row>
     <row r="53">
@@ -3211,16 +3211,16 @@
         <v>55</v>
       </c>
       <c r="B53" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C53" t="s">
         <v>344</v>
       </c>
       <c r="D53" t="s">
-        <v>389</v>
+        <v>370</v>
       </c>
       <c r="E53" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
     </row>
     <row r="54">
@@ -3228,16 +3228,16 @@
         <v>56</v>
       </c>
       <c r="B54" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C54" t="s">
         <v>344</v>
       </c>
       <c r="D54" t="s">
-        <v>390</v>
+        <v>371</v>
       </c>
       <c r="E54" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
     </row>
     <row r="55">
@@ -3245,16 +3245,16 @@
         <v>57</v>
       </c>
       <c r="B55" t="s">
-        <v>325</v>
+        <v>335</v>
       </c>
       <c r="C55" t="s">
         <v>344</v>
       </c>
       <c r="D55" t="s">
-        <v>358</v>
+        <v>371</v>
       </c>
       <c r="E55" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
     </row>
     <row r="56">
@@ -3262,16 +3262,16 @@
         <v>58</v>
       </c>
       <c r="B56" t="s">
-        <v>325</v>
+        <v>338</v>
       </c>
       <c r="C56" t="s">
         <v>344</v>
       </c>
       <c r="D56" t="s">
-        <v>391</v>
+        <v>371</v>
       </c>
       <c r="E56" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
     </row>
     <row r="57">
@@ -3279,16 +3279,16 @@
         <v>59</v>
       </c>
       <c r="B57" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="C57" t="s">
         <v>344</v>
       </c>
       <c r="D57" t="s">
-        <v>359</v>
+        <v>371</v>
       </c>
       <c r="E57" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
     </row>
     <row r="58">
@@ -3296,16 +3296,16 @@
         <v>60</v>
       </c>
       <c r="B58" t="s">
-        <v>325</v>
+        <v>339</v>
       </c>
       <c r="C58" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="D58" t="s">
-        <v>392</v>
+        <v>371</v>
       </c>
       <c r="E58" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
     </row>
     <row r="59">
@@ -3313,16 +3313,16 @@
         <v>61</v>
       </c>
       <c r="B59" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="C59" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="D59" t="s">
-        <v>393</v>
+        <v>371</v>
       </c>
       <c r="E59" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
     </row>
     <row r="60">
@@ -3330,16 +3330,16 @@
         <v>62</v>
       </c>
       <c r="B60" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C60" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="D60" t="s">
-        <v>394</v>
+        <v>372</v>
       </c>
       <c r="E60" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
     </row>
     <row r="61">
@@ -3347,16 +3347,16 @@
         <v>63</v>
       </c>
       <c r="B61" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="C61" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="D61" t="s">
-        <v>395</v>
+        <v>372</v>
       </c>
       <c r="E61" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
     </row>
     <row r="62">
@@ -3364,16 +3364,16 @@
         <v>64</v>
       </c>
       <c r="B62" t="s">
-        <v>325</v>
+        <v>340</v>
       </c>
       <c r="C62" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="D62" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E62" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
     </row>
     <row r="63">
@@ -3381,16 +3381,16 @@
         <v>65</v>
       </c>
       <c r="B63" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="C63" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="D63" t="s">
-        <v>396</v>
+        <v>373</v>
       </c>
       <c r="E63" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
     </row>
     <row r="64">
@@ -3398,16 +3398,16 @@
         <v>66</v>
       </c>
       <c r="B64" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="C64" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="D64" t="s">
-        <v>397</v>
+        <v>373</v>
       </c>
       <c r="E64" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
     </row>
     <row r="65">
@@ -3415,16 +3415,16 @@
         <v>67</v>
       </c>
       <c r="B65" t="s">
-        <v>325</v>
+        <v>340</v>
       </c>
       <c r="C65" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="D65" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="E65" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
     </row>
     <row r="66">
@@ -3432,16 +3432,16 @@
         <v>68</v>
       </c>
       <c r="B66" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C66" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="D66" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="E66" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
     </row>
     <row r="67">
@@ -3449,16 +3449,16 @@
         <v>69</v>
       </c>
       <c r="B67" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C67" t="s">
         <v>345</v>
       </c>
       <c r="D67" t="s">
-        <v>398</v>
+        <v>375</v>
       </c>
       <c r="E67" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
     </row>
     <row r="68">
@@ -3466,16 +3466,16 @@
         <v>70</v>
       </c>
       <c r="B68" t="s">
-        <v>325</v>
+        <v>340</v>
       </c>
       <c r="C68" t="s">
         <v>345</v>
       </c>
       <c r="D68" t="s">
-        <v>399</v>
+        <v>375</v>
       </c>
       <c r="E68" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
     </row>
     <row r="69">
@@ -3486,13 +3486,13 @@
         <v>325</v>
       </c>
       <c r="C69" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D69" t="s">
-        <v>400</v>
+        <v>376</v>
       </c>
       <c r="E69" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
     </row>
     <row r="70">
@@ -3500,16 +3500,16 @@
         <v>72</v>
       </c>
       <c r="B70" t="s">
-        <v>325</v>
+        <v>336</v>
       </c>
       <c r="C70" t="s">
         <v>346</v>
       </c>
       <c r="D70" t="s">
-        <v>401</v>
+        <v>376</v>
       </c>
       <c r="E70" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
     </row>
     <row r="71">
@@ -3517,16 +3517,16 @@
         <v>73</v>
       </c>
       <c r="B71" t="s">
-        <v>325</v>
+        <v>341</v>
       </c>
       <c r="C71" t="s">
         <v>346</v>
       </c>
       <c r="D71" t="s">
-        <v>364</v>
+        <v>376</v>
       </c>
       <c r="E71" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
     </row>
     <row r="72">
@@ -3534,16 +3534,16 @@
         <v>74</v>
       </c>
       <c r="B72" t="s">
-        <v>325</v>
+        <v>338</v>
       </c>
       <c r="C72" t="s">
         <v>346</v>
       </c>
       <c r="D72" t="s">
-        <v>402</v>
+        <v>376</v>
       </c>
       <c r="E72" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
     </row>
     <row r="73">
@@ -3551,16 +3551,16 @@
         <v>75</v>
       </c>
       <c r="B73" t="s">
-        <v>325</v>
+        <v>340</v>
       </c>
       <c r="C73" t="s">
         <v>346</v>
       </c>
       <c r="D73" t="s">
-        <v>403</v>
+        <v>376</v>
       </c>
       <c r="E73" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
     </row>
     <row r="74">
@@ -3568,16 +3568,16 @@
         <v>76</v>
       </c>
       <c r="B74" t="s">
-        <v>325</v>
+        <v>339</v>
       </c>
       <c r="C74" t="s">
         <v>346</v>
       </c>
       <c r="D74" t="s">
-        <v>404</v>
+        <v>376</v>
       </c>
       <c r="E74" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
     </row>
     <row r="75">
@@ -3585,16 +3585,16 @@
         <v>77</v>
       </c>
       <c r="B75" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="C75" t="s">
         <v>346</v>
       </c>
       <c r="D75" t="s">
-        <v>366</v>
+        <v>376</v>
       </c>
       <c r="E75" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
     </row>
     <row r="76">
@@ -3602,16 +3602,16 @@
         <v>78</v>
       </c>
       <c r="B76" t="s">
-        <v>325</v>
+        <v>342</v>
       </c>
       <c r="C76" t="s">
         <v>346</v>
       </c>
       <c r="D76" t="s">
-        <v>405</v>
+        <v>376</v>
       </c>
       <c r="E76" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
     </row>
     <row r="77">
@@ -3619,16 +3619,16 @@
         <v>79</v>
       </c>
       <c r="B77" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C77" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="D77" t="s">
-        <v>406</v>
+        <v>377</v>
       </c>
       <c r="E77" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
     </row>
     <row r="78">
@@ -3636,16 +3636,16 @@
         <v>80</v>
       </c>
       <c r="B78" t="s">
-        <v>325</v>
+        <v>335</v>
       </c>
       <c r="C78" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="D78" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="E78" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
     </row>
     <row r="79">
@@ -3653,16 +3653,16 @@
         <v>81</v>
       </c>
       <c r="B79" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C79" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="D79" t="s">
-        <v>407</v>
+        <v>379</v>
       </c>
       <c r="E79" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
     </row>
     <row r="80">
@@ -3670,16 +3670,16 @@
         <v>82</v>
       </c>
       <c r="B80" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C80" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="D80" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="E80" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
     </row>
     <row r="81">
@@ -3687,16 +3687,16 @@
         <v>83</v>
       </c>
       <c r="B81" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="C81" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="D81" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="E81" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
     </row>
     <row r="82">
@@ -3704,16 +3704,16 @@
         <v>84</v>
       </c>
       <c r="B82" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C82" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="D82" t="s">
-        <v>408</v>
+        <v>380</v>
       </c>
       <c r="E82" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
     </row>
     <row r="83">
@@ -3721,16 +3721,16 @@
         <v>85</v>
       </c>
       <c r="B83" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="C83" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="D83" t="s">
-        <v>409</v>
+        <v>380</v>
       </c>
       <c r="E83" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
     </row>
     <row r="84">
@@ -3738,16 +3738,16 @@
         <v>86</v>
       </c>
       <c r="B84" t="s">
-        <v>325</v>
+        <v>338</v>
       </c>
       <c r="C84" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="D84" t="s">
-        <v>410</v>
+        <v>380</v>
       </c>
       <c r="E84" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
     </row>
     <row r="85">
@@ -3755,16 +3755,16 @@
         <v>87</v>
       </c>
       <c r="B85" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C85" t="s">
         <v>347</v>
       </c>
       <c r="D85" t="s">
-        <v>367</v>
+        <v>380</v>
       </c>
       <c r="E85" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
     </row>
     <row r="86">
@@ -3772,16 +3772,16 @@
         <v>88</v>
       </c>
       <c r="B86" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="C86" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="D86" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="E86" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
     </row>
     <row r="87">
@@ -3789,16 +3789,16 @@
         <v>89</v>
       </c>
       <c r="B87" t="s">
-        <v>326</v>
+        <v>340</v>
       </c>
       <c r="C87" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="D87" t="s">
-        <v>356</v>
+        <v>380</v>
       </c>
       <c r="E87" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
     </row>
     <row r="88">
@@ -3806,16 +3806,16 @@
         <v>90</v>
       </c>
       <c r="B88" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="C88" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="D88" t="s">
-        <v>411</v>
+        <v>380</v>
       </c>
       <c r="E88" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
     </row>
     <row r="89">
@@ -3823,16 +3823,16 @@
         <v>91</v>
       </c>
       <c r="B89" t="s">
-        <v>326</v>
+        <v>342</v>
       </c>
       <c r="C89" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="D89" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="E89" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
     </row>
     <row r="90">
@@ -3840,16 +3840,16 @@
         <v>92</v>
       </c>
       <c r="B90" t="s">
-        <v>326</v>
+        <v>340</v>
       </c>
       <c r="C90" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="D90" t="s">
-        <v>412</v>
+        <v>381</v>
       </c>
       <c r="E90" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
     </row>
     <row r="91">
@@ -3857,16 +3857,16 @@
         <v>93</v>
       </c>
       <c r="B91" t="s">
-        <v>326</v>
+        <v>340</v>
       </c>
       <c r="C91" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="D91" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="E91" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
     </row>
     <row r="92">
@@ -3874,16 +3874,16 @@
         <v>94</v>
       </c>
       <c r="B92" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C92" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="D92" t="s">
-        <v>413</v>
+        <v>383</v>
       </c>
       <c r="E92" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
     </row>
     <row r="93">
@@ -3891,16 +3891,16 @@
         <v>95</v>
       </c>
       <c r="B93" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="C93" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="D93" t="s">
-        <v>397</v>
+        <v>383</v>
       </c>
       <c r="E93" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
     </row>
     <row r="94">
@@ -3908,16 +3908,16 @@
         <v>96</v>
       </c>
       <c r="B94" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="C94" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="D94" t="s">
-        <v>414</v>
+        <v>383</v>
       </c>
       <c r="E94" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
     </row>
     <row r="95">
@@ -3925,16 +3925,16 @@
         <v>97</v>
       </c>
       <c r="B95" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="C95" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="D95" t="s">
-        <v>415</v>
+        <v>383</v>
       </c>
       <c r="E95" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
     </row>
     <row r="96">
@@ -3942,16 +3942,16 @@
         <v>98</v>
       </c>
       <c r="B96" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="C96" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="D96" t="s">
-        <v>416</v>
+        <v>384</v>
       </c>
       <c r="E96" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
     </row>
     <row r="97">
@@ -3959,16 +3959,16 @@
         <v>99</v>
       </c>
       <c r="B97" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="C97" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="D97" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="E97" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
     </row>
     <row r="98">
@@ -3976,16 +3976,16 @@
         <v>100</v>
       </c>
       <c r="B98" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C98" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="D98" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E98" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
     </row>
     <row r="99">
@@ -3993,16 +3993,16 @@
         <v>101</v>
       </c>
       <c r="B99" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="C99" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D99" t="s">
-        <v>417</v>
+        <v>385</v>
       </c>
       <c r="E99" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="100">
@@ -4010,16 +4010,16 @@
         <v>102</v>
       </c>
       <c r="B100" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C100" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D100" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="E100" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
     </row>
     <row r="101">
@@ -4027,16 +4027,16 @@
         <v>103</v>
       </c>
       <c r="B101" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="C101" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D101" t="s">
         <v>385</v>
       </c>
       <c r="E101" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
     </row>
     <row r="102">
@@ -4044,16 +4044,16 @@
         <v>104</v>
       </c>
       <c r="B102" t="s">
-        <v>326</v>
+        <v>340</v>
       </c>
       <c r="C102" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D102" t="s">
-        <v>375</v>
+        <v>385</v>
       </c>
       <c r="E102" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
     </row>
     <row r="103">
@@ -4061,16 +4061,16 @@
         <v>105</v>
       </c>
       <c r="B103" t="s">
-        <v>326</v>
+        <v>342</v>
       </c>
       <c r="C103" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="D103" t="s">
-        <v>418</v>
+        <v>386</v>
       </c>
       <c r="E103" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
     </row>
     <row r="104">
@@ -4078,16 +4078,16 @@
         <v>106</v>
       </c>
       <c r="B104" t="s">
-        <v>326</v>
+        <v>342</v>
       </c>
       <c r="C104" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="D104" t="s">
-        <v>419</v>
+        <v>387</v>
       </c>
       <c r="E104" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
     </row>
     <row r="105">
@@ -4095,16 +4095,16 @@
         <v>107</v>
       </c>
       <c r="B105" t="s">
-        <v>327</v>
+        <v>342</v>
       </c>
       <c r="C105" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="D105" t="s">
-        <v>356</v>
+        <v>388</v>
       </c>
       <c r="E105" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
     </row>
     <row r="106">
@@ -4112,16 +4112,16 @@
         <v>108</v>
       </c>
       <c r="B106" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C106" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="D106" t="s">
-        <v>411</v>
+        <v>389</v>
       </c>
       <c r="E106" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
     </row>
     <row r="107">
@@ -4129,16 +4129,16 @@
         <v>109</v>
       </c>
       <c r="B107" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C107" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="D107" t="s">
         <v>389</v>
       </c>
       <c r="E107" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
     </row>
     <row r="108">
@@ -4146,16 +4146,16 @@
         <v>110</v>
       </c>
       <c r="B108" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C108" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="D108" t="s">
-        <v>420</v>
+        <v>390</v>
       </c>
       <c r="E108" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
     </row>
     <row r="109">
@@ -4163,16 +4163,16 @@
         <v>111</v>
       </c>
       <c r="B109" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C109" t="s">
         <v>348</v>
       </c>
       <c r="D109" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="E109" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
     </row>
     <row r="110">
@@ -4180,16 +4180,16 @@
         <v>112</v>
       </c>
       <c r="B110" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C110" t="s">
         <v>348</v>
       </c>
       <c r="D110" t="s">
-        <v>380</v>
+        <v>392</v>
       </c>
       <c r="E110" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="111">
@@ -4203,10 +4203,10 @@
         <v>348</v>
       </c>
       <c r="D111" t="s">
-        <v>371</v>
+        <v>393</v>
       </c>
       <c r="E111" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="112">
@@ -4214,16 +4214,16 @@
         <v>114</v>
       </c>
       <c r="B112" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C112" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="D112" t="s">
-        <v>412</v>
+        <v>393</v>
       </c>
       <c r="E112" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
     </row>
     <row r="113">
@@ -4231,16 +4231,16 @@
         <v>115</v>
       </c>
       <c r="B113" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C113" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D113" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="E113" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
     </row>
     <row r="114">
@@ -4248,16 +4248,16 @@
         <v>116</v>
       </c>
       <c r="B114" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="C114" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="D114" t="s">
-        <v>421</v>
+        <v>394</v>
       </c>
       <c r="E114" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
     </row>
     <row r="115">
@@ -4265,16 +4265,16 @@
         <v>117</v>
       </c>
       <c r="B115" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="C115" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="D115" t="s">
-        <v>383</v>
+        <v>394</v>
       </c>
       <c r="E115" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
     </row>
     <row r="116">
@@ -4282,16 +4282,16 @@
         <v>118</v>
       </c>
       <c r="B116" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="C116" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="D116" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="E116" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
     </row>
     <row r="117">
@@ -4299,16 +4299,16 @@
         <v>119</v>
       </c>
       <c r="B117" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C117" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="D117" t="s">
-        <v>362</v>
+        <v>395</v>
       </c>
       <c r="E117" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
     </row>
     <row r="118">
@@ -4316,16 +4316,16 @@
         <v>120</v>
       </c>
       <c r="B118" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="C118" t="s">
         <v>349</v>
       </c>
       <c r="D118" t="s">
-        <v>422</v>
+        <v>395</v>
       </c>
       <c r="E118" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
     </row>
     <row r="119">
@@ -4333,16 +4333,16 @@
         <v>121</v>
       </c>
       <c r="B119" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="C119" t="s">
         <v>349</v>
       </c>
       <c r="D119" t="s">
-        <v>373</v>
+        <v>395</v>
       </c>
       <c r="E119" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="120">
@@ -4350,16 +4350,16 @@
         <v>122</v>
       </c>
       <c r="B120" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="C120" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="D120" t="s">
-        <v>367</v>
+        <v>396</v>
       </c>
       <c r="E120" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="121">
@@ -4367,16 +4367,16 @@
         <v>123</v>
       </c>
       <c r="B121" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C121" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="D121" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="E121" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
     </row>
     <row r="122">
@@ -4384,16 +4384,16 @@
         <v>124</v>
       </c>
       <c r="B122" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="C122" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="D122" t="s">
-        <v>411</v>
+        <v>396</v>
       </c>
       <c r="E122" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
     </row>
     <row r="123">
@@ -4401,16 +4401,16 @@
         <v>125</v>
       </c>
       <c r="B123" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C123" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="D123" t="s">
-        <v>423</v>
+        <v>397</v>
       </c>
       <c r="E123" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
     </row>
     <row r="124">
@@ -4418,16 +4418,16 @@
         <v>126</v>
       </c>
       <c r="B124" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="C124" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="D124" t="s">
-        <v>424</v>
+        <v>398</v>
       </c>
       <c r="E124" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
     </row>
     <row r="125">
@@ -4435,16 +4435,16 @@
         <v>127</v>
       </c>
       <c r="B125" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C125" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D125" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="E125" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="126">
@@ -4452,16 +4452,16 @@
         <v>128</v>
       </c>
       <c r="B126" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="C126" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="D126" t="s">
-        <v>361</v>
+        <v>398</v>
       </c>
       <c r="E126" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="127">
@@ -4469,16 +4469,16 @@
         <v>129</v>
       </c>
       <c r="B127" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="C127" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="D127" t="s">
-        <v>372</v>
+        <v>398</v>
       </c>
       <c r="E127" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
     </row>
     <row r="128">
@@ -4486,16 +4486,16 @@
         <v>130</v>
       </c>
       <c r="B128" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="C128" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="D128" t="s">
-        <v>365</v>
+        <v>398</v>
       </c>
       <c r="E128" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
     </row>
     <row r="129">
@@ -4503,16 +4503,16 @@
         <v>131</v>
       </c>
       <c r="B129" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="C129" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="D129" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="E129" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
     </row>
     <row r="130">
@@ -4520,16 +4520,16 @@
         <v>132</v>
       </c>
       <c r="B130" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="C130" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="D130" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="E130" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
     </row>
     <row r="131">
@@ -4537,16 +4537,16 @@
         <v>133</v>
       </c>
       <c r="B131" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C131" t="s">
         <v>349</v>
       </c>
       <c r="D131" t="s">
-        <v>373</v>
+        <v>400</v>
       </c>
       <c r="E131" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
     </row>
     <row r="132">
@@ -4554,16 +4554,16 @@
         <v>134</v>
       </c>
       <c r="B132" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C132" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="D132" t="s">
-        <v>425</v>
+        <v>401</v>
       </c>
       <c r="E132" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
     </row>
     <row r="133">
@@ -4571,16 +4571,16 @@
         <v>135</v>
       </c>
       <c r="B133" t="s">
-        <v>329</v>
+        <v>340</v>
       </c>
       <c r="C133" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="D133" t="s">
-        <v>356</v>
+        <v>401</v>
       </c>
       <c r="E133" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
     </row>
     <row r="134">
@@ -4588,16 +4588,16 @@
         <v>136</v>
       </c>
       <c r="B134" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="C134" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D134" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="E134" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
     </row>
     <row r="135">
@@ -4605,16 +4605,16 @@
         <v>137</v>
       </c>
       <c r="B135" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="C135" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D135" t="s">
-        <v>416</v>
+        <v>402</v>
       </c>
       <c r="E135" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
     </row>
     <row r="136">
@@ -4622,16 +4622,16 @@
         <v>138</v>
       </c>
       <c r="B136" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="C136" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D136" t="s">
-        <v>426</v>
+        <v>402</v>
       </c>
       <c r="E136" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
     </row>
     <row r="137">
@@ -4639,16 +4639,16 @@
         <v>139</v>
       </c>
       <c r="B137" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C137" t="s">
         <v>350</v>
       </c>
       <c r="D137" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="E137" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
     </row>
     <row r="138">
@@ -4656,16 +4656,16 @@
         <v>140</v>
       </c>
       <c r="B138" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="C138" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="D138" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="E138" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
     </row>
     <row r="139">
@@ -4673,16 +4673,16 @@
         <v>141</v>
       </c>
       <c r="B139" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="C139" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="D139" t="s">
-        <v>425</v>
+        <v>403</v>
       </c>
       <c r="E139" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
     </row>
     <row r="140">
@@ -4690,16 +4690,16 @@
         <v>142</v>
       </c>
       <c r="B140" t="s">
-        <v>330</v>
+        <v>343</v>
       </c>
       <c r="C140" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="D140" t="s">
-        <v>390</v>
+        <v>403</v>
       </c>
       <c r="E140" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
     </row>
     <row r="141">
@@ -4707,16 +4707,16 @@
         <v>143</v>
       </c>
       <c r="B141" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="C141" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D141" t="s">
-        <v>421</v>
+        <v>404</v>
       </c>
       <c r="E141" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
     </row>
     <row r="142">
@@ -4724,16 +4724,16 @@
         <v>144</v>
       </c>
       <c r="B142" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="C142" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D142" t="s">
-        <v>383</v>
+        <v>404</v>
       </c>
       <c r="E142" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
     </row>
     <row r="143">
@@ -4741,16 +4741,16 @@
         <v>145</v>
       </c>
       <c r="B143" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="C143" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D143" t="s">
-        <v>373</v>
+        <v>404</v>
       </c>
       <c r="E143" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
     </row>
     <row r="144">
@@ -4758,16 +4758,16 @@
         <v>146</v>
       </c>
       <c r="B144" t="s">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="C144" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="D144" t="s">
-        <v>419</v>
+        <v>404</v>
       </c>
       <c r="E144" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
     </row>
     <row r="145">
@@ -4778,13 +4778,13 @@
         <v>331</v>
       </c>
       <c r="C145" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D145" t="s">
-        <v>383</v>
+        <v>404</v>
       </c>
       <c r="E145" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
     </row>
     <row r="146">
@@ -4792,16 +4792,16 @@
         <v>148</v>
       </c>
       <c r="B146" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="C146" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="D146" t="s">
-        <v>361</v>
+        <v>405</v>
       </c>
       <c r="E146" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
     </row>
     <row r="147">
@@ -4809,16 +4809,16 @@
         <v>149</v>
       </c>
       <c r="B147" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="C147" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="D147" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="E147" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
     </row>
     <row r="148">
@@ -4826,16 +4826,16 @@
         <v>150</v>
       </c>
       <c r="B148" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C148" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="D148" t="s">
-        <v>362</v>
+        <v>405</v>
       </c>
       <c r="E148" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
     </row>
     <row r="149">
@@ -4843,16 +4843,16 @@
         <v>151</v>
       </c>
       <c r="B149" t="s">
-        <v>331</v>
+        <v>342</v>
       </c>
       <c r="C149" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="D149" t="s">
-        <v>364</v>
+        <v>405</v>
       </c>
       <c r="E149" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
     </row>
     <row r="150">
@@ -4860,16 +4860,16 @@
         <v>152</v>
       </c>
       <c r="B150" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="C150" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="D150" t="s">
-        <v>366</v>
+        <v>406</v>
       </c>
       <c r="E150" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
     </row>
     <row r="151">
@@ -4877,16 +4877,16 @@
         <v>153</v>
       </c>
       <c r="B151" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="C151" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D151" t="s">
-        <v>427</v>
+        <v>406</v>
       </c>
       <c r="E151" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
     </row>
     <row r="152">
@@ -4894,16 +4894,16 @@
         <v>154</v>
       </c>
       <c r="B152" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="C152" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="D152" t="s">
-        <v>419</v>
+        <v>406</v>
       </c>
       <c r="E152" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
     </row>
     <row r="153">
@@ -4911,16 +4911,16 @@
         <v>155</v>
       </c>
       <c r="B153" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="C153" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="D153" t="s">
-        <v>356</v>
+        <v>406</v>
       </c>
       <c r="E153" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
     </row>
     <row r="154">
@@ -4931,13 +4931,13 @@
         <v>332</v>
       </c>
       <c r="C154" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="D154" t="s">
-        <v>369</v>
+        <v>406</v>
       </c>
       <c r="E154" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
     </row>
     <row r="155">
@@ -4945,16 +4945,16 @@
         <v>157</v>
       </c>
       <c r="B155" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="C155" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="D155" t="s">
-        <v>363</v>
+        <v>406</v>
       </c>
       <c r="E155" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
     </row>
     <row r="156">
@@ -4962,16 +4962,16 @@
         <v>158</v>
       </c>
       <c r="B156" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="C156" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="D156" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="E156" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
     </row>
     <row r="157">
@@ -4979,16 +4979,16 @@
         <v>159</v>
       </c>
       <c r="B157" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="C157" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="D157" t="s">
-        <v>428</v>
+        <v>406</v>
       </c>
       <c r="E157" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
     </row>
     <row r="158">
@@ -4996,16 +4996,16 @@
         <v>160</v>
       </c>
       <c r="B158" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="C158" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="D158" t="s">
-        <v>366</v>
+        <v>406</v>
       </c>
       <c r="E158" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
     </row>
     <row r="159">
@@ -5013,16 +5013,16 @@
         <v>161</v>
       </c>
       <c r="B159" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="C159" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D159" t="s">
-        <v>427</v>
+        <v>406</v>
       </c>
       <c r="E159" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
     </row>
     <row r="160">
@@ -5030,16 +5030,16 @@
         <v>162</v>
       </c>
       <c r="B160" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C160" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="D160" t="s">
-        <v>429</v>
+        <v>406</v>
       </c>
       <c r="E160" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
     </row>
     <row r="161">
@@ -5047,16 +5047,16 @@
         <v>163</v>
       </c>
       <c r="B161" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C161" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="D161" t="s">
-        <v>369</v>
+        <v>406</v>
       </c>
       <c r="E161" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
     </row>
     <row r="162">
@@ -5064,16 +5064,16 @@
         <v>164</v>
       </c>
       <c r="B162" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="C162" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D162" t="s">
-        <v>383</v>
+        <v>406</v>
       </c>
       <c r="E162" t="s">
-        <v>601</v>
+        <v>572</v>
       </c>
     </row>
     <row r="163">
@@ -5081,16 +5081,16 @@
         <v>165</v>
       </c>
       <c r="B163" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="C163" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D163" t="s">
         <v>407</v>
       </c>
       <c r="E163" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
     </row>
     <row r="164">
@@ -5098,16 +5098,16 @@
         <v>166</v>
       </c>
       <c r="B164" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="C164" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="D164" t="s">
-        <v>419</v>
+        <v>407</v>
       </c>
       <c r="E164" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
     </row>
     <row r="165">
@@ -5115,16 +5115,16 @@
         <v>167</v>
       </c>
       <c r="B165" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="C165" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="D165" t="s">
-        <v>367</v>
+        <v>407</v>
       </c>
       <c r="E165" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
     </row>
     <row r="166">
@@ -5132,16 +5132,16 @@
         <v>168</v>
       </c>
       <c r="B166" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="C166" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="D166" t="s">
-        <v>379</v>
+        <v>407</v>
       </c>
       <c r="E166" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
     </row>
     <row r="167">
@@ -5149,16 +5149,16 @@
         <v>169</v>
       </c>
       <c r="B167" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C167" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="D167" t="s">
-        <v>356</v>
+        <v>407</v>
       </c>
       <c r="E167" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
     </row>
     <row r="168">
@@ -5166,16 +5166,16 @@
         <v>170</v>
       </c>
       <c r="B168" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="C168" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="D168" t="s">
-        <v>423</v>
+        <v>408</v>
       </c>
       <c r="E168" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
     </row>
     <row r="169">
@@ -5183,16 +5183,16 @@
         <v>171</v>
       </c>
       <c r="B169" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="C169" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="D169" t="s">
-        <v>359</v>
+        <v>408</v>
       </c>
       <c r="E169" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
     </row>
     <row r="170">
@@ -5200,16 +5200,16 @@
         <v>172</v>
       </c>
       <c r="B170" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="C170" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="D170" t="s">
-        <v>360</v>
+        <v>409</v>
       </c>
       <c r="E170" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
     </row>
     <row r="171">
@@ -5217,16 +5217,16 @@
         <v>173</v>
       </c>
       <c r="B171" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C171" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="D171" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="E171" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
     </row>
     <row r="172">
@@ -5234,16 +5234,16 @@
         <v>174</v>
       </c>
       <c r="B172" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="C172" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D172" t="s">
-        <v>396</v>
+        <v>409</v>
       </c>
       <c r="E172" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
     </row>
     <row r="173">
@@ -5251,16 +5251,16 @@
         <v>175</v>
       </c>
       <c r="B173" t="s">
-        <v>334</v>
+        <v>321</v>
       </c>
       <c r="C173" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D173" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="E173" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
     </row>
     <row r="174">
@@ -5268,16 +5268,16 @@
         <v>176</v>
       </c>
       <c r="B174" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="C174" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D174" t="s">
-        <v>382</v>
+        <v>409</v>
       </c>
       <c r="E174" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
     </row>
     <row r="175">
@@ -5285,16 +5285,16 @@
         <v>177</v>
       </c>
       <c r="B175" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="C175" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D175" t="s">
-        <v>426</v>
+        <v>409</v>
       </c>
       <c r="E175" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
     </row>
     <row r="176">
@@ -5302,16 +5302,16 @@
         <v>178</v>
       </c>
       <c r="B176" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="C176" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D176" t="s">
-        <v>383</v>
+        <v>409</v>
       </c>
       <c r="E176" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
     </row>
     <row r="177">
@@ -5319,16 +5319,16 @@
         <v>179</v>
       </c>
       <c r="B177" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="C177" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="D177" t="s">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="E177" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
     </row>
     <row r="178">
@@ -5336,16 +5336,16 @@
         <v>180</v>
       </c>
       <c r="B178" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="C178" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="D178" t="s">
-        <v>362</v>
+        <v>411</v>
       </c>
       <c r="E178" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
     </row>
     <row r="179">
@@ -5353,16 +5353,16 @@
         <v>181</v>
       </c>
       <c r="B179" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="C179" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="D179" t="s">
-        <v>363</v>
+        <v>412</v>
       </c>
       <c r="E179" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
     </row>
     <row r="180">
@@ -5370,16 +5370,16 @@
         <v>182</v>
       </c>
       <c r="B180" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C180" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="D180" t="s">
-        <v>401</v>
+        <v>412</v>
       </c>
       <c r="E180" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="181">
@@ -5387,16 +5387,16 @@
         <v>183</v>
       </c>
       <c r="B181" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="C181" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="D181" t="s">
-        <v>365</v>
+        <v>412</v>
       </c>
       <c r="E181" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
     </row>
     <row r="182">
@@ -5404,16 +5404,16 @@
         <v>184</v>
       </c>
       <c r="B182" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="C182" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="D182" t="s">
-        <v>402</v>
+        <v>412</v>
       </c>
       <c r="E182" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="183">
@@ -5421,16 +5421,16 @@
         <v>185</v>
       </c>
       <c r="B183" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="C183" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="D183" t="s">
-        <v>428</v>
+        <v>412</v>
       </c>
       <c r="E183" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
     </row>
     <row r="184">
@@ -5438,16 +5438,16 @@
         <v>186</v>
       </c>
       <c r="B184" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="C184" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="D184" t="s">
-        <v>366</v>
+        <v>412</v>
       </c>
       <c r="E184" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
     </row>
     <row r="185">
@@ -5455,16 +5455,16 @@
         <v>187</v>
       </c>
       <c r="B185" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="C185" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="D185" t="s">
-        <v>430</v>
+        <v>413</v>
       </c>
       <c r="E185" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
     </row>
     <row r="186">
@@ -5472,16 +5472,16 @@
         <v>188</v>
       </c>
       <c r="B186" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C186" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="D186" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="E186" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
     </row>
     <row r="187">
@@ -5489,16 +5489,16 @@
         <v>189</v>
       </c>
       <c r="B187" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="C187" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="D187" t="s">
-        <v>407</v>
+        <v>414</v>
       </c>
       <c r="E187" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
     </row>
     <row r="188">
@@ -5506,16 +5506,16 @@
         <v>190</v>
       </c>
       <c r="B188" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="C188" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="D188" t="s">
-        <v>431</v>
+        <v>415</v>
       </c>
       <c r="E188" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
     </row>
     <row r="189">
@@ -5523,16 +5523,16 @@
         <v>191</v>
       </c>
       <c r="B189" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="C189" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="D189" t="s">
-        <v>385</v>
+        <v>415</v>
       </c>
       <c r="E189" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
     </row>
     <row r="190">
@@ -5540,16 +5540,16 @@
         <v>192</v>
       </c>
       <c r="B190" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="C190" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="D190" t="s">
-        <v>375</v>
+        <v>416</v>
       </c>
       <c r="E190" t="s">
-        <v>627</v>
+        <v>631</v>
       </c>
     </row>
     <row r="191">
@@ -5557,16 +5557,16 @@
         <v>193</v>
       </c>
       <c r="B191" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="C191" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="D191" t="s">
-        <v>388</v>
+        <v>416</v>
       </c>
       <c r="E191" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
     </row>
     <row r="192">
@@ -5574,16 +5574,16 @@
         <v>194</v>
       </c>
       <c r="B192" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="C192" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D192" t="s">
-        <v>376</v>
+        <v>416</v>
       </c>
       <c r="E192" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
     </row>
     <row r="193">
@@ -5591,16 +5591,16 @@
         <v>195</v>
       </c>
       <c r="B193" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C193" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D193" t="s">
-        <v>377</v>
+        <v>416</v>
       </c>
       <c r="E193" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
     </row>
     <row r="194">
@@ -5608,16 +5608,16 @@
         <v>196</v>
       </c>
       <c r="B194" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="C194" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D194" t="s">
-        <v>432</v>
+        <v>416</v>
       </c>
       <c r="E194" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
     </row>
     <row r="195">
@@ -5625,16 +5625,16 @@
         <v>197</v>
       </c>
       <c r="B195" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="C195" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D195" t="s">
-        <v>433</v>
+        <v>416</v>
       </c>
       <c r="E195" t="s">
-        <v>631</v>
+        <v>636</v>
       </c>
     </row>
     <row r="196">
@@ -5642,16 +5642,16 @@
         <v>198</v>
       </c>
       <c r="B196" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="C196" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D196" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E196" t="s">
-        <v>632</v>
+        <v>637</v>
       </c>
     </row>
     <row r="197">
@@ -5659,16 +5659,16 @@
         <v>199</v>
       </c>
       <c r="B197" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C197" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D197" t="s">
-        <v>378</v>
+        <v>416</v>
       </c>
       <c r="E197" t="s">
-        <v>627</v>
+        <v>638</v>
       </c>
     </row>
     <row r="198">
@@ -5676,16 +5676,16 @@
         <v>200</v>
       </c>
       <c r="B198" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="C198" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="D198" t="s">
-        <v>434</v>
+        <v>416</v>
       </c>
       <c r="E198" t="s">
-        <v>633</v>
+        <v>639</v>
       </c>
     </row>
     <row r="199">
@@ -5693,16 +5693,16 @@
         <v>201</v>
       </c>
       <c r="B199" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="C199" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="D199" t="s">
-        <v>435</v>
+        <v>417</v>
       </c>
       <c r="E199" t="s">
-        <v>634</v>
+        <v>640</v>
       </c>
     </row>
     <row r="200">
@@ -5710,16 +5710,16 @@
         <v>202</v>
       </c>
       <c r="B200" t="s">
-        <v>334</v>
+        <v>321</v>
       </c>
       <c r="C200" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="D200" t="s">
-        <v>367</v>
+        <v>417</v>
       </c>
       <c r="E200" t="s">
-        <v>635</v>
+        <v>641</v>
       </c>
     </row>
     <row r="201">
@@ -5727,16 +5727,16 @@
         <v>203</v>
       </c>
       <c r="B201" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="C201" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="D201" t="s">
-        <v>356</v>
+        <v>417</v>
       </c>
       <c r="E201" t="s">
-        <v>636</v>
+        <v>642</v>
       </c>
     </row>
     <row r="202">
@@ -5744,16 +5744,16 @@
         <v>204</v>
       </c>
       <c r="B202" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="C202" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="D202" t="s">
-        <v>369</v>
+        <v>418</v>
       </c>
       <c r="E202" t="s">
-        <v>637</v>
+        <v>643</v>
       </c>
     </row>
     <row r="203">
@@ -5761,16 +5761,16 @@
         <v>205</v>
       </c>
       <c r="B203" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C203" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="D203" t="s">
-        <v>359</v>
+        <v>418</v>
       </c>
       <c r="E203" t="s">
-        <v>638</v>
+        <v>644</v>
       </c>
     </row>
     <row r="204">
@@ -5778,16 +5778,16 @@
         <v>206</v>
       </c>
       <c r="B204" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C204" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="D204" t="s">
-        <v>395</v>
+        <v>418</v>
       </c>
       <c r="E204" t="s">
-        <v>639</v>
+        <v>645</v>
       </c>
     </row>
     <row r="205">
@@ -5795,16 +5795,16 @@
         <v>207</v>
       </c>
       <c r="B205" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="C205" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D205" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="E205" t="s">
-        <v>640</v>
+        <v>646</v>
       </c>
     </row>
     <row r="206">
@@ -5812,16 +5812,16 @@
         <v>208</v>
       </c>
       <c r="B206" t="s">
-        <v>335</v>
+        <v>322</v>
       </c>
       <c r="C206" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="D206" t="s">
-        <v>400</v>
+        <v>418</v>
       </c>
       <c r="E206" t="s">
-        <v>641</v>
+        <v>647</v>
       </c>
     </row>
     <row r="207">
@@ -5829,16 +5829,16 @@
         <v>209</v>
       </c>
       <c r="B207" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="C207" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="D207" t="s">
-        <v>362</v>
+        <v>418</v>
       </c>
       <c r="E207" t="s">
-        <v>642</v>
+        <v>648</v>
       </c>
     </row>
     <row r="208">
@@ -5846,16 +5846,16 @@
         <v>210</v>
       </c>
       <c r="B208" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="C208" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="D208" t="s">
-        <v>401</v>
+        <v>418</v>
       </c>
       <c r="E208" t="s">
-        <v>643</v>
+        <v>649</v>
       </c>
     </row>
     <row r="209">
@@ -5863,16 +5863,16 @@
         <v>211</v>
       </c>
       <c r="B209" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="C209" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="D209" t="s">
-        <v>436</v>
+        <v>419</v>
       </c>
       <c r="E209" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="210">
@@ -5880,16 +5880,16 @@
         <v>212</v>
       </c>
       <c r="B210" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="C210" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="D210" t="s">
-        <v>402</v>
+        <v>419</v>
       </c>
       <c r="E210" t="s">
-        <v>645</v>
+        <v>650</v>
       </c>
     </row>
     <row r="211">
@@ -5900,13 +5900,13 @@
         <v>335</v>
       </c>
       <c r="C211" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="D211" t="s">
-        <v>404</v>
+        <v>419</v>
       </c>
       <c r="E211" t="s">
-        <v>646</v>
+        <v>651</v>
       </c>
     </row>
     <row r="212">
@@ -5914,16 +5914,16 @@
         <v>214</v>
       </c>
       <c r="B212" t="s">
-        <v>335</v>
+        <v>322</v>
       </c>
       <c r="C212" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="D212" t="s">
-        <v>437</v>
+        <v>419</v>
       </c>
       <c r="E212" t="s">
-        <v>647</v>
+        <v>652</v>
       </c>
     </row>
     <row r="213">
@@ -5931,16 +5931,16 @@
         <v>215</v>
       </c>
       <c r="B213" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="C213" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="D213" t="s">
-        <v>373</v>
+        <v>419</v>
       </c>
       <c r="E213" t="s">
-        <v>648</v>
+        <v>653</v>
       </c>
     </row>
     <row r="214">
@@ -5948,16 +5948,16 @@
         <v>216</v>
       </c>
       <c r="B214" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="C214" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="D214" t="s">
-        <v>407</v>
+        <v>419</v>
       </c>
       <c r="E214" t="s">
-        <v>649</v>
+        <v>654</v>
       </c>
     </row>
     <row r="215">
@@ -5965,16 +5965,16 @@
         <v>217</v>
       </c>
       <c r="B215" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="C215" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="D215" t="s">
-        <v>375</v>
+        <v>419</v>
       </c>
       <c r="E215" t="s">
-        <v>650</v>
+        <v>655</v>
       </c>
     </row>
     <row r="216">
@@ -5982,16 +5982,16 @@
         <v>218</v>
       </c>
       <c r="B216" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="C216" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D216" t="s">
-        <v>377</v>
+        <v>419</v>
       </c>
       <c r="E216" t="s">
-        <v>651</v>
+        <v>656</v>
       </c>
     </row>
     <row r="217">
@@ -5999,16 +5999,16 @@
         <v>219</v>
       </c>
       <c r="B217" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="C217" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="D217" t="s">
-        <v>367</v>
+        <v>420</v>
       </c>
       <c r="E217" t="s">
-        <v>652</v>
+        <v>657</v>
       </c>
     </row>
     <row r="218">
@@ -6016,16 +6016,16 @@
         <v>220</v>
       </c>
       <c r="B218" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="C218" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="D218" t="s">
-        <v>371</v>
+        <v>420</v>
       </c>
       <c r="E218" t="s">
-        <v>653</v>
+        <v>658</v>
       </c>
     </row>
     <row r="219">
@@ -6033,16 +6033,16 @@
         <v>221</v>
       </c>
       <c r="B219" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="C219" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D219" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="E219" t="s">
-        <v>654</v>
+        <v>659</v>
       </c>
     </row>
     <row r="220">
@@ -6050,16 +6050,16 @@
         <v>222</v>
       </c>
       <c r="B220" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="C220" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D220" t="s">
-        <v>382</v>
+        <v>420</v>
       </c>
       <c r="E220" t="s">
-        <v>655</v>
+        <v>660</v>
       </c>
     </row>
     <row r="221">
@@ -6067,16 +6067,16 @@
         <v>223</v>
       </c>
       <c r="B221" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C221" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D221" t="s">
-        <v>383</v>
+        <v>420</v>
       </c>
       <c r="E221" t="s">
-        <v>656</v>
+        <v>661</v>
       </c>
     </row>
     <row r="222">
@@ -6084,16 +6084,16 @@
         <v>224</v>
       </c>
       <c r="B222" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C222" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="D222" t="s">
-        <v>372</v>
+        <v>421</v>
       </c>
       <c r="E222" t="s">
-        <v>657</v>
+        <v>662</v>
       </c>
     </row>
     <row r="223">
@@ -6101,16 +6101,16 @@
         <v>225</v>
       </c>
       <c r="B223" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="C223" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="D223" t="s">
-        <v>363</v>
+        <v>421</v>
       </c>
       <c r="E223" t="s">
-        <v>658</v>
+        <v>663</v>
       </c>
     </row>
     <row r="224">
@@ -6118,16 +6118,16 @@
         <v>226</v>
       </c>
       <c r="B224" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C224" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="D224" t="s">
-        <v>364</v>
+        <v>421</v>
       </c>
       <c r="E224" t="s">
-        <v>659</v>
+        <v>664</v>
       </c>
     </row>
     <row r="225">
@@ -6135,16 +6135,16 @@
         <v>227</v>
       </c>
       <c r="B225" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="C225" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="D225" t="s">
-        <v>366</v>
+        <v>422</v>
       </c>
       <c r="E225" t="s">
-        <v>660</v>
+        <v>665</v>
       </c>
     </row>
     <row r="226">
@@ -6152,16 +6152,16 @@
         <v>228</v>
       </c>
       <c r="B226" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="C226" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="D226" t="s">
-        <v>406</v>
+        <v>423</v>
       </c>
       <c r="E226" t="s">
-        <v>661</v>
+        <v>643</v>
       </c>
     </row>
     <row r="227">
@@ -6169,16 +6169,16 @@
         <v>229</v>
       </c>
       <c r="B227" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="C227" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="D227" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="E227" t="s">
-        <v>662</v>
+        <v>666</v>
       </c>
     </row>
     <row r="228">
@@ -6186,16 +6186,16 @@
         <v>230</v>
       </c>
       <c r="B228" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="C228" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="D228" t="s">
-        <v>373</v>
+        <v>423</v>
       </c>
       <c r="E228" t="s">
-        <v>663</v>
+        <v>667</v>
       </c>
     </row>
     <row r="229">
@@ -6203,16 +6203,16 @@
         <v>231</v>
       </c>
       <c r="B229" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C229" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="D229" t="s">
-        <v>374</v>
+        <v>423</v>
       </c>
       <c r="E229" t="s">
-        <v>664</v>
+        <v>668</v>
       </c>
     </row>
     <row r="230">
@@ -6220,16 +6220,16 @@
         <v>232</v>
       </c>
       <c r="B230" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C230" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="D230" t="s">
-        <v>407</v>
+        <v>423</v>
       </c>
       <c r="E230" t="s">
-        <v>665</v>
+        <v>669</v>
       </c>
     </row>
     <row r="231">
@@ -6237,16 +6237,16 @@
         <v>233</v>
       </c>
       <c r="B231" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="C231" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="D231" t="s">
-        <v>385</v>
+        <v>424</v>
       </c>
       <c r="E231" t="s">
-        <v>666</v>
+        <v>670</v>
       </c>
     </row>
     <row r="232">
@@ -6254,16 +6254,16 @@
         <v>234</v>
       </c>
       <c r="B232" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="C232" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="D232" t="s">
-        <v>388</v>
+        <v>425</v>
       </c>
       <c r="E232" t="s">
-        <v>667</v>
+        <v>671</v>
       </c>
     </row>
     <row r="233">
@@ -6271,16 +6271,16 @@
         <v>235</v>
       </c>
       <c r="B233" t="s">
-        <v>336</v>
+        <v>320</v>
       </c>
       <c r="C233" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D233" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="E233" t="s">
-        <v>668</v>
+        <v>672</v>
       </c>
     </row>
     <row r="234">
@@ -6288,16 +6288,16 @@
         <v>236</v>
       </c>
       <c r="B234" t="s">
-        <v>336</v>
+        <v>321</v>
       </c>
       <c r="C234" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D234" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="E234" t="s">
-        <v>669</v>
+        <v>673</v>
       </c>
     </row>
     <row r="235">
@@ -6305,16 +6305,16 @@
         <v>237</v>
       </c>
       <c r="B235" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="C235" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D235" t="s">
-        <v>378</v>
+        <v>425</v>
       </c>
       <c r="E235" t="s">
-        <v>670</v>
+        <v>674</v>
       </c>
     </row>
     <row r="236">
@@ -6322,16 +6322,16 @@
         <v>238</v>
       </c>
       <c r="B236" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="C236" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D236" t="s">
-        <v>408</v>
+        <v>425</v>
       </c>
       <c r="E236" t="s">
-        <v>671</v>
+        <v>675</v>
       </c>
     </row>
     <row r="237">
@@ -6339,16 +6339,16 @@
         <v>239</v>
       </c>
       <c r="B237" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="C237" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D237" t="s">
         <v>425</v>
       </c>
       <c r="E237" t="s">
-        <v>672</v>
+        <v>676</v>
       </c>
     </row>
     <row r="238">
@@ -6356,16 +6356,16 @@
         <v>240</v>
       </c>
       <c r="B238" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="C238" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D238" t="s">
-        <v>410</v>
+        <v>425</v>
       </c>
       <c r="E238" t="s">
-        <v>673</v>
+        <v>639</v>
       </c>
     </row>
     <row r="239">
@@ -6373,16 +6373,16 @@
         <v>241</v>
       </c>
       <c r="B239" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="C239" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="D239" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="E239" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
     </row>
     <row r="240">
@@ -6390,16 +6390,16 @@
         <v>242</v>
       </c>
       <c r="B240" t="s">
-        <v>336</v>
+        <v>321</v>
       </c>
       <c r="C240" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="D240" t="s">
-        <v>367</v>
+        <v>426</v>
       </c>
       <c r="E240" t="s">
-        <v>675</v>
+        <v>678</v>
       </c>
     </row>
     <row r="241">
@@ -6407,16 +6407,16 @@
         <v>243</v>
       </c>
       <c r="B241" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C241" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="D241" t="s">
-        <v>438</v>
+        <v>426</v>
       </c>
       <c r="E241" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
     </row>
     <row r="242">
@@ -6424,16 +6424,16 @@
         <v>244</v>
       </c>
       <c r="B242" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="C242" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="D242" t="s">
-        <v>439</v>
+        <v>426</v>
       </c>
       <c r="E242" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
     </row>
     <row r="243">
@@ -6441,16 +6441,16 @@
         <v>245</v>
       </c>
       <c r="B243" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="C243" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="D243" t="s">
-        <v>369</v>
+        <v>426</v>
       </c>
       <c r="E243" t="s">
-        <v>678</v>
+        <v>681</v>
       </c>
     </row>
     <row r="244">
@@ -6458,16 +6458,16 @@
         <v>246</v>
       </c>
       <c r="B244" t="s">
-        <v>337</v>
+        <v>323</v>
       </c>
       <c r="C244" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="D244" t="s">
-        <v>363</v>
+        <v>426</v>
       </c>
       <c r="E244" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
     </row>
     <row r="245">
@@ -6475,16 +6475,16 @@
         <v>247</v>
       </c>
       <c r="B245" t="s">
-        <v>337</v>
+        <v>324</v>
       </c>
       <c r="C245" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="D245" t="s">
-        <v>365</v>
+        <v>427</v>
       </c>
       <c r="E245" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
     </row>
     <row r="246">
@@ -6492,16 +6492,16 @@
         <v>248</v>
       </c>
       <c r="B246" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="C246" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="D246" t="s">
-        <v>366</v>
+        <v>427</v>
       </c>
       <c r="E246" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
     </row>
     <row r="247">
@@ -6509,16 +6509,16 @@
         <v>249</v>
       </c>
       <c r="B247" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="C247" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="D247" t="s">
-        <v>405</v>
+        <v>428</v>
       </c>
       <c r="E247" t="s">
-        <v>682</v>
+        <v>685</v>
       </c>
     </row>
     <row r="248">
@@ -6526,16 +6526,16 @@
         <v>250</v>
       </c>
       <c r="B248" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C248" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="D248" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="E248" t="s">
-        <v>683</v>
+        <v>686</v>
       </c>
     </row>
     <row r="249">
@@ -6543,16 +6543,16 @@
         <v>251</v>
       </c>
       <c r="B249" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C249" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="D249" t="s">
-        <v>385</v>
+        <v>428</v>
       </c>
       <c r="E249" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
     </row>
     <row r="250">
@@ -6560,16 +6560,16 @@
         <v>252</v>
       </c>
       <c r="B250" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="C250" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D250" t="s">
-        <v>419</v>
+        <v>429</v>
       </c>
       <c r="E250" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
     </row>
     <row r="251">
@@ -6577,16 +6577,16 @@
         <v>253</v>
       </c>
       <c r="B251" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="C251" t="s">
-        <v>344</v>
+        <v>353</v>
       </c>
       <c r="D251" t="s">
-        <v>359</v>
+        <v>430</v>
       </c>
       <c r="E251" t="s">
-        <v>686</v>
+        <v>689</v>
       </c>
     </row>
     <row r="252">
@@ -6594,16 +6594,16 @@
         <v>254</v>
       </c>
       <c r="B252" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="C252" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="D252" t="s">
-        <v>395</v>
+        <v>430</v>
       </c>
       <c r="E252" t="s">
-        <v>687</v>
+        <v>690</v>
       </c>
     </row>
     <row r="253">
@@ -6611,16 +6611,16 @@
         <v>255</v>
       </c>
       <c r="B253" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c r="C253" t="s">
         <v>353</v>
       </c>
       <c r="D253" t="s">
-        <v>383</v>
+        <v>431</v>
       </c>
       <c r="E253" t="s">
-        <v>688</v>
+        <v>691</v>
       </c>
     </row>
     <row r="254">
@@ -6628,16 +6628,16 @@
         <v>256</v>
       </c>
       <c r="B254" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
       <c r="C254" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="D254" t="s">
-        <v>384</v>
+        <v>431</v>
       </c>
       <c r="E254" t="s">
-        <v>689</v>
+        <v>692</v>
       </c>
     </row>
     <row r="255">
@@ -6645,16 +6645,16 @@
         <v>257</v>
       </c>
       <c r="B255" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="C255" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="D255" t="s">
-        <v>407</v>
+        <v>431</v>
       </c>
       <c r="E255" t="s">
-        <v>690</v>
+        <v>693</v>
       </c>
     </row>
     <row r="256">
@@ -6662,16 +6662,16 @@
         <v>258</v>
       </c>
       <c r="B256" t="s">
-        <v>338</v>
+        <v>321</v>
       </c>
       <c r="C256" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="D256" t="s">
-        <v>378</v>
+        <v>431</v>
       </c>
       <c r="E256" t="s">
-        <v>691</v>
+        <v>694</v>
       </c>
     </row>
     <row r="257">
@@ -6679,16 +6679,16 @@
         <v>259</v>
       </c>
       <c r="B257" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C257" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="D257" t="s">
-        <v>367</v>
+        <v>431</v>
       </c>
       <c r="E257" t="s">
-        <v>692</v>
+        <v>695</v>
       </c>
     </row>
     <row r="258">
@@ -6696,16 +6696,16 @@
         <v>260</v>
       </c>
       <c r="B258" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="C258" t="s">
-        <v>344</v>
+        <v>353</v>
       </c>
       <c r="D258" t="s">
-        <v>379</v>
+        <v>431</v>
       </c>
       <c r="E258" t="s">
-        <v>693</v>
+        <v>696</v>
       </c>
     </row>
     <row r="259">
@@ -6713,16 +6713,16 @@
         <v>261</v>
       </c>
       <c r="B259" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C259" t="s">
-        <v>344</v>
+        <v>353</v>
       </c>
       <c r="D259" t="s">
-        <v>369</v>
+        <v>431</v>
       </c>
       <c r="E259" t="s">
-        <v>694</v>
+        <v>697</v>
       </c>
     </row>
     <row r="260">
@@ -6730,16 +6730,16 @@
         <v>262</v>
       </c>
       <c r="B260" t="s">
-        <v>339</v>
+        <v>322</v>
       </c>
       <c r="C260" t="s">
-        <v>344</v>
+        <v>353</v>
       </c>
       <c r="D260" t="s">
-        <v>359</v>
+        <v>432</v>
       </c>
       <c r="E260" t="s">
-        <v>695</v>
+        <v>698</v>
       </c>
     </row>
     <row r="261">
@@ -6747,16 +6747,16 @@
         <v>263</v>
       </c>
       <c r="B261" t="s">
-        <v>339</v>
+        <v>325</v>
       </c>
       <c r="C261" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D261" t="s">
-        <v>412</v>
+        <v>433</v>
       </c>
       <c r="E261" t="s">
-        <v>696</v>
+        <v>699</v>
       </c>
     </row>
     <row r="262">
@@ -6764,16 +6764,16 @@
         <v>264</v>
       </c>
       <c r="B262" t="s">
-        <v>339</v>
+        <v>322</v>
       </c>
       <c r="C262" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D262" t="s">
-        <v>397</v>
+        <v>433</v>
       </c>
       <c r="E262" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
     </row>
     <row r="263">
@@ -6781,16 +6781,16 @@
         <v>265</v>
       </c>
       <c r="B263" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="C263" t="s">
         <v>353</v>
       </c>
       <c r="D263" t="s">
-        <v>382</v>
+        <v>434</v>
       </c>
       <c r="E263" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
     </row>
     <row r="264">
@@ -6798,16 +6798,16 @@
         <v>266</v>
       </c>
       <c r="B264" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C264" t="s">
         <v>353</v>
       </c>
       <c r="D264" t="s">
-        <v>383</v>
+        <v>434</v>
       </c>
       <c r="E264" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
     </row>
     <row r="265">
@@ -6815,16 +6815,16 @@
         <v>267</v>
       </c>
       <c r="B265" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="C265" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="D265" t="s">
-        <v>361</v>
+        <v>434</v>
       </c>
       <c r="E265" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
     </row>
     <row r="266">
@@ -6832,16 +6832,16 @@
         <v>268</v>
       </c>
       <c r="B266" t="s">
-        <v>339</v>
+        <v>324</v>
       </c>
       <c r="C266" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="D266" t="s">
-        <v>365</v>
+        <v>435</v>
       </c>
       <c r="E266" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
     </row>
     <row r="267">
@@ -6849,16 +6849,16 @@
         <v>269</v>
       </c>
       <c r="B267" t="s">
-        <v>339</v>
+        <v>325</v>
       </c>
       <c r="C267" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="D267" t="s">
-        <v>366</v>
+        <v>435</v>
       </c>
       <c r="E267" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
     </row>
     <row r="268">
@@ -6866,16 +6866,16 @@
         <v>270</v>
       </c>
       <c r="B268" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="C268" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="D268" t="s">
-        <v>374</v>
+        <v>435</v>
       </c>
       <c r="E268" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
     </row>
     <row r="269">
@@ -6883,16 +6883,16 @@
         <v>271</v>
       </c>
       <c r="B269" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C269" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="D269" t="s">
-        <v>376</v>
+        <v>435</v>
       </c>
       <c r="E269" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
     </row>
     <row r="270">
@@ -6900,16 +6900,16 @@
         <v>272</v>
       </c>
       <c r="B270" t="s">
-        <v>339</v>
+        <v>322</v>
       </c>
       <c r="C270" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="D270" t="s">
-        <v>377</v>
+        <v>435</v>
       </c>
       <c r="E270" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
     </row>
     <row r="271">
@@ -6917,16 +6917,16 @@
         <v>273</v>
       </c>
       <c r="B271" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="C271" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D271" t="s">
-        <v>419</v>
+        <v>435</v>
       </c>
       <c r="E271" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
     </row>
     <row r="272">
@@ -6937,13 +6937,13 @@
         <v>340</v>
       </c>
       <c r="C272" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="D272" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="E272" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
     </row>
     <row r="273">
@@ -6951,16 +6951,16 @@
         <v>275</v>
       </c>
       <c r="B273" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="C273" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="D273" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="E273" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
     </row>
     <row r="274">
@@ -6968,16 +6968,16 @@
         <v>276</v>
       </c>
       <c r="B274" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="C274" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="D274" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="E274" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
     </row>
     <row r="275">
@@ -6985,16 +6985,16 @@
         <v>277</v>
       </c>
       <c r="B275" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C275" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D275" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
       <c r="E275" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
     </row>
     <row r="276">
@@ -7002,16 +7002,16 @@
         <v>278</v>
       </c>
       <c r="B276" t="s">
-        <v>340</v>
+        <v>322</v>
       </c>
       <c r="C276" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="D276" t="s">
-        <v>372</v>
+        <v>436</v>
       </c>
       <c r="E276" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
     </row>
     <row r="277">
@@ -7019,16 +7019,16 @@
         <v>279</v>
       </c>
       <c r="B277" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C277" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="D277" t="s">
-        <v>363</v>
+        <v>436</v>
       </c>
       <c r="E277" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
     </row>
     <row r="278">
@@ -7036,16 +7036,16 @@
         <v>280</v>
       </c>
       <c r="B278" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="C278" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="D278" t="s">
-        <v>401</v>
+        <v>437</v>
       </c>
       <c r="E278" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
     </row>
     <row r="279">
@@ -7053,16 +7053,16 @@
         <v>281</v>
       </c>
       <c r="B279" t="s">
-        <v>340</v>
+        <v>325</v>
       </c>
       <c r="C279" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="D279" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="E279" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
     </row>
     <row r="280">
@@ -7070,16 +7070,16 @@
         <v>282</v>
       </c>
       <c r="B280" t="s">
-        <v>340</v>
+        <v>322</v>
       </c>
       <c r="C280" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="D280" t="s">
-        <v>365</v>
+        <v>437</v>
       </c>
       <c r="E280" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
     </row>
     <row r="281">
@@ -7090,13 +7090,13 @@
         <v>340</v>
       </c>
       <c r="C281" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="D281" t="s">
-        <v>366</v>
+        <v>437</v>
       </c>
       <c r="E281" t="s">
-        <v>715</v>
+        <v>718</v>
       </c>
     </row>
     <row r="282">
@@ -7104,16 +7104,16 @@
         <v>284</v>
       </c>
       <c r="B282" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C282" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="D282" t="s">
-        <v>407</v>
+        <v>437</v>
       </c>
       <c r="E282" t="s">
-        <v>716</v>
+        <v>719</v>
       </c>
     </row>
     <row r="283">
@@ -7121,16 +7121,16 @@
         <v>285</v>
       </c>
       <c r="B283" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
       <c r="C283" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="D283" t="s">
-        <v>388</v>
+        <v>438</v>
       </c>
       <c r="E283" t="s">
-        <v>717</v>
+        <v>720</v>
       </c>
     </row>
     <row r="284">
@@ -7138,16 +7138,16 @@
         <v>286</v>
       </c>
       <c r="B284" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="C284" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="D284" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="E284" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
     </row>
     <row r="285">
@@ -7155,16 +7155,16 @@
         <v>287</v>
       </c>
       <c r="B285" t="s">
-        <v>340</v>
+        <v>320</v>
       </c>
       <c r="C285" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="D285" t="s">
-        <v>378</v>
+        <v>438</v>
       </c>
       <c r="E285" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
     </row>
     <row r="286">
@@ -7172,16 +7172,16 @@
         <v>288</v>
       </c>
       <c r="B286" t="s">
-        <v>340</v>
+        <v>325</v>
       </c>
       <c r="C286" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D286" t="s">
-        <v>419</v>
+        <v>438</v>
       </c>
       <c r="E286" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
     </row>
     <row r="287">
@@ -7189,16 +7189,16 @@
         <v>289</v>
       </c>
       <c r="B287" t="s">
-        <v>340</v>
+        <v>322</v>
       </c>
       <c r="C287" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="D287" t="s">
-        <v>367</v>
+        <v>438</v>
       </c>
       <c r="E287" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
     </row>
     <row r="288">
@@ -7206,16 +7206,16 @@
         <v>290</v>
       </c>
       <c r="B288" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="C288" t="s">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="D288" t="s">
-        <v>379</v>
+        <v>438</v>
       </c>
       <c r="E288" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
     </row>
     <row r="289">
@@ -7223,16 +7223,16 @@
         <v>291</v>
       </c>
       <c r="B289" t="s">
-        <v>341</v>
+        <v>328</v>
       </c>
       <c r="C289" t="s">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="D289" t="s">
-        <v>357</v>
+        <v>439</v>
       </c>
       <c r="E289" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
     </row>
     <row r="290">
@@ -7240,16 +7240,16 @@
         <v>292</v>
       </c>
       <c r="B290" t="s">
-        <v>341</v>
+        <v>322</v>
       </c>
       <c r="C290" t="s">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="D290" t="s">
-        <v>389</v>
+        <v>439</v>
       </c>
       <c r="E290" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
     </row>
     <row r="291">
@@ -7257,16 +7257,16 @@
         <v>293</v>
       </c>
       <c r="B291" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C291" t="s">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="D291" t="s">
-        <v>390</v>
+        <v>439</v>
       </c>
       <c r="E291" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
     </row>
     <row r="292">
@@ -7274,16 +7274,16 @@
         <v>294</v>
       </c>
       <c r="B292" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C292" t="s">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="D292" t="s">
-        <v>358</v>
+        <v>439</v>
       </c>
       <c r="E292" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
     </row>
     <row r="293">
@@ -7291,16 +7291,16 @@
         <v>295</v>
       </c>
       <c r="B293" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="C293" t="s">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="D293" t="s">
-        <v>423</v>
+        <v>439</v>
       </c>
       <c r="E293" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
     </row>
     <row r="294">
@@ -7308,16 +7308,16 @@
         <v>296</v>
       </c>
       <c r="B294" t="s">
-        <v>341</v>
+        <v>327</v>
       </c>
       <c r="C294" t="s">
-        <v>344</v>
+        <v>355</v>
       </c>
       <c r="D294" t="s">
-        <v>391</v>
+        <v>440</v>
       </c>
       <c r="E294" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
     </row>
     <row r="295">
@@ -7325,16 +7325,16 @@
         <v>297</v>
       </c>
       <c r="B295" t="s">
-        <v>341</v>
+        <v>328</v>
       </c>
       <c r="C295" t="s">
-        <v>344</v>
+        <v>355</v>
       </c>
       <c r="D295" t="s">
-        <v>424</v>
+        <v>440</v>
       </c>
       <c r="E295" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
     </row>
     <row r="296">
@@ -7342,16 +7342,16 @@
         <v>298</v>
       </c>
       <c r="B296" t="s">
-        <v>341</v>
+        <v>322</v>
       </c>
       <c r="C296" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="D296" t="s">
-        <v>392</v>
+        <v>440</v>
       </c>
       <c r="E296" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
     </row>
     <row r="297">
@@ -7359,16 +7359,16 @@
         <v>299</v>
       </c>
       <c r="B297" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="C297" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="D297" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="E297" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
     </row>
     <row r="298">
@@ -7376,16 +7376,16 @@
         <v>300</v>
       </c>
       <c r="B298" t="s">
-        <v>341</v>
+        <v>327</v>
       </c>
       <c r="C298" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="D298" t="s">
-        <v>370</v>
+        <v>441</v>
       </c>
       <c r="E298" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
     </row>
     <row r="299">
@@ -7393,16 +7393,16 @@
         <v>301</v>
       </c>
       <c r="B299" t="s">
-        <v>341</v>
+        <v>320</v>
       </c>
       <c r="C299" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="D299" t="s">
-        <v>381</v>
+        <v>441</v>
       </c>
       <c r="E299" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
     </row>
     <row r="300">
@@ -7410,16 +7410,16 @@
         <v>302</v>
       </c>
       <c r="B300" t="s">
-        <v>341</v>
+        <v>324</v>
       </c>
       <c r="C300" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="D300" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="E300" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
     </row>
     <row r="301">
@@ -7427,16 +7427,16 @@
         <v>303</v>
       </c>
       <c r="B301" t="s">
-        <v>341</v>
+        <v>322</v>
       </c>
       <c r="C301" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="D301" t="s">
-        <v>402</v>
+        <v>441</v>
       </c>
       <c r="E301" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
     </row>
     <row r="302">
@@ -7444,16 +7444,16 @@
         <v>304</v>
       </c>
       <c r="B302" t="s">
-        <v>342</v>
+        <v>329</v>
       </c>
       <c r="C302" t="s">
-        <v>344</v>
+        <v>355</v>
       </c>
       <c r="D302" t="s">
-        <v>390</v>
+        <v>441</v>
       </c>
       <c r="E302" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="303">
@@ -7461,16 +7461,16 @@
         <v>305</v>
       </c>
       <c r="B303" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="C303" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="D303" t="s">
-        <v>396</v>
+        <v>441</v>
       </c>
       <c r="E303" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
     </row>
     <row r="304">
@@ -7478,16 +7478,16 @@
         <v>306</v>
       </c>
       <c r="B304" t="s">
-        <v>342</v>
+        <v>322</v>
       </c>
       <c r="C304" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="D304" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="E304" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
     </row>
     <row r="305">
@@ -7495,16 +7495,16 @@
         <v>307</v>
       </c>
       <c r="B305" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C305" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="D305" t="s">
-        <v>421</v>
+        <v>442</v>
       </c>
       <c r="E305" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
     </row>
     <row r="306">
@@ -7512,16 +7512,16 @@
         <v>308</v>
       </c>
       <c r="B306" t="s">
-        <v>342</v>
+        <v>322</v>
       </c>
       <c r="C306" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="D306" t="s">
-        <v>383</v>
+        <v>443</v>
       </c>
       <c r="E306" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
     </row>
     <row r="307">
@@ -7529,16 +7529,16 @@
         <v>309</v>
       </c>
       <c r="B307" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C307" t="s">
-        <v>345</v>
+        <v>355</v>
       </c>
       <c r="D307" t="s">
-        <v>372</v>
+        <v>443</v>
       </c>
       <c r="E307" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
     </row>
     <row r="308">
@@ -7549,13 +7549,13 @@
         <v>342</v>
       </c>
       <c r="C308" t="s">
-        <v>345</v>
+        <v>355</v>
       </c>
       <c r="D308" t="s">
-        <v>400</v>
+        <v>443</v>
       </c>
       <c r="E308" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
     </row>
     <row r="309">
@@ -7563,16 +7563,16 @@
         <v>311</v>
       </c>
       <c r="B309" t="s">
-        <v>342</v>
+        <v>325</v>
       </c>
       <c r="C309" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="D309" t="s">
-        <v>362</v>
+        <v>444</v>
       </c>
       <c r="E309" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
     </row>
     <row r="310">
@@ -7580,16 +7580,16 @@
         <v>312</v>
       </c>
       <c r="B310" t="s">
-        <v>342</v>
+        <v>322</v>
       </c>
       <c r="C310" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="D310" t="s">
-        <v>363</v>
+        <v>444</v>
       </c>
       <c r="E310" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
     </row>
     <row r="311">
@@ -7597,16 +7597,16 @@
         <v>313</v>
       </c>
       <c r="B311" t="s">
-        <v>342</v>
+        <v>327</v>
       </c>
       <c r="C311" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="D311" t="s">
-        <v>401</v>
+        <v>445</v>
       </c>
       <c r="E311" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
     </row>
     <row r="312">
@@ -7614,16 +7614,16 @@
         <v>314</v>
       </c>
       <c r="B312" t="s">
-        <v>342</v>
+        <v>320</v>
       </c>
       <c r="C312" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="D312" t="s">
-        <v>384</v>
+        <v>445</v>
       </c>
       <c r="E312" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
     </row>
     <row r="313">
@@ -7631,16 +7631,16 @@
         <v>315</v>
       </c>
       <c r="B313" t="s">
-        <v>342</v>
+        <v>324</v>
       </c>
       <c r="C313" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="D313" t="s">
-        <v>364</v>
+        <v>445</v>
       </c>
       <c r="E313" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
     </row>
     <row r="314">
@@ -7648,16 +7648,16 @@
         <v>316</v>
       </c>
       <c r="B314" t="s">
-        <v>342</v>
+        <v>322</v>
       </c>
       <c r="C314" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="D314" t="s">
-        <v>407</v>
+        <v>445</v>
       </c>
       <c r="E314" t="s">
-        <v>747</v>
+        <v>717</v>
       </c>
     </row>
     <row r="315">
@@ -7665,13 +7665,13 @@
         <v>317</v>
       </c>
       <c r="B315" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C315" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="D315" t="s">
-        <v>431</v>
+        <v>445</v>
       </c>
       <c r="E315" t="s">
         <v>748</v>
@@ -7682,13 +7682,13 @@
         <v>318</v>
       </c>
       <c r="B316" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="C316" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="D316" t="s">
-        <v>388</v>
+        <v>445</v>
       </c>
       <c r="E316" t="s">
         <v>749</v>
@@ -7699,13 +7699,13 @@
         <v>319</v>
       </c>
       <c r="B317" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C317" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="D317" t="s">
-        <v>416</v>
+        <v>445</v>
       </c>
       <c r="E317" t="s">
         <v>750</v>
